--- a/Data Sources/External sources.xlsx
+++ b/Data Sources/External sources.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovin\My Drive\Master Thesis\Python Code\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A10DD27-0B4A-4CF4-B7C2-BE9F97EEAF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A218B3-F6B6-48FA-92DC-27BF0E807046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="National Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="National Statistics Table" sheetId="2" r:id="rId2"/>
-    <sheet name="EUROSTAT " sheetId="4" r:id="rId3"/>
+    <sheet name="EUROSTAT" sheetId="4" r:id="rId3"/>
     <sheet name="Sources Comparission" sheetId="3" r:id="rId4"/>
+    <sheet name="Percentage difference" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk84702980" localSheetId="4">'Percentage difference'!$G$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="179">
   <si>
     <t>BE</t>
   </si>
@@ -324,9 +328,6 @@
     <t>SK</t>
   </si>
   <si>
-    <t>https://slovak.statistics.sk/wps/portal/ext/themes/multi/energy/publications/!ut/p/z0/04_Sj9CPykssy0xPLMnMz0vMAfIjo8ziw3wCLJycDB0N3M1DDA08_fyCQ8MsAo1DnU30g1Pz9AuyHRUBHJFX5g!!/</t>
-  </si>
-  <si>
     <t>Statistical Office of the SR</t>
   </si>
   <si>
@@ -336,9 +337,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistical-data-sets/historical-electricity-data</t>
-  </si>
-  <si>
     <t>Department for Business, Energy &amp; Industrial Strategy</t>
   </si>
   <si>
@@ -420,9 +418,6 @@
     <t>Energinet</t>
   </si>
   <si>
-    <t>https://www.iea.org/data-and-statistics/data-tables?country=DENMARK&amp;energy=Electricity&amp;year=2018</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -519,97 +514,74 @@
     <t>GEO/TIME</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>National Sources</t>
+  </si>
+  <si>
+    <t>Fossil Hard Coal</t>
+  </si>
+  <si>
+    <t>Fossil Brown Coal/Lignite</t>
+  </si>
+  <si>
+    <t>https://bestat.statbel.fgov.be/bestat/crosstable.xhtml?view=80079bd5-e388-4ee9-987c-94273b99249f</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/PortalTraffic/fileServlet?Dokument=da19bcb8-8c9c-4757-aba5-2d0720266efa</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1005772/Electricity_since_1920.xls</t>
+  </si>
+  <si>
+    <t>Generation Technology</t>
+  </si>
+  <si>
+    <t>Actual Generation Output per Generation Unit (GWh)</t>
+  </si>
+  <si>
+    <t>Aggregated Generation per Type (GWh)</t>
+  </si>
+  <si>
+    <t>Official Statistics of Individual Countries (GWh)</t>
+  </si>
+  <si>
+    <t>Eurostat Data (GWh)</t>
+  </si>
+  <si>
+    <t>11821.361 </t>
+  </si>
+  <si>
+    <t>8309.496 </t>
+  </si>
+  <si>
+    <t> -</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Percentage difference in Official Statistics data</t>
+  </si>
+  <si>
+    <t>Percentage difference in Actual Generation Output per Generation Unit data</t>
+  </si>
+  <si>
+    <t>Percentage difference in Aggregated Generation per Type data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.##########"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +638,55 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,8 +717,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -722,41 +746,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -798,36 +796,57 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9FFBC14B-1060-485F-977D-E2CC81312EAF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{6DC1389B-C74D-4374-A44E-516F08BF9FCE}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1112,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G391"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1124,7 +1143,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1136,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1153,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1171,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1188,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1205,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1223,10 +1242,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1243,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1260,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1278,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1292,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1309,10 +1328,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1327,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1344,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1361,10 +1380,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1378,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1401,7 +1420,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1409,16 +1428,16 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>4504</v>
+        <v>3484</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1432,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1449,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1466,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1483,10 +1502,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1500,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1517,10 +1536,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1534,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1551,10 +1570,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1569,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1586,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1603,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1620,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1637,10 +1656,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1660,7 +1679,7 @@
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1674,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1691,10 +1710,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1711,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1729,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1743,10 +1762,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1760,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1777,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1798,7 +1817,7 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1815,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1832,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1846,10 +1865,10 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1863,10 +1882,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1880,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1897,10 +1916,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1908,16 +1927,16 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>2222.73</v>
+        <v>2222.7260000000001</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1931,15 +1950,15 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1951,10 +1970,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1971,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1989,7 +2008,7 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2003,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2020,10 +2039,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2037,15 +2056,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <f>5716-1944-122</f>
@@ -2055,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2075,7 +2094,7 @@
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2092,7 +2111,7 @@
         <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2109,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2126,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,7 +2165,7 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -2165,7 +2184,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="2:6" s="6" customFormat="1">
@@ -2179,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:6" s="6" customFormat="1">
@@ -2199,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:6" s="6" customFormat="1">
@@ -2213,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -2230,10 +2249,10 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -2247,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:6">
@@ -2268,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:6">
@@ -2285,7 +2304,7 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -2319,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -2337,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="2:6">
@@ -2354,7 +2373,7 @@
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="2:6">
@@ -2371,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -2388,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="2:6">
@@ -2405,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -2422,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2439,7 +2458,7 @@
         <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2447,16 +2466,16 @@
         <v>59</v>
       </c>
       <c r="C82">
-        <v>11573</v>
+        <v>11573.41</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2464,16 +2483,16 @@
         <v>60</v>
       </c>
       <c r="C83">
-        <v>25481</v>
+        <v>25480.503000000001</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2493,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2527,7 +2546,7 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2562,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2579,7 +2598,7 @@
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2596,7 +2615,7 @@
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2613,12 +2632,12 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C93">
         <v>6661.0820000000003</v>
@@ -2630,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2647,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2664,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2681,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2698,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2715,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2732,12 +2751,12 @@
         <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="B100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100">
         <v>6400</v>
@@ -2749,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2766,7 +2785,7 @@
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2783,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2800,12 +2819,12 @@
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
@@ -2817,10 +2836,10 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2834,10 +2853,10 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2851,10 +2870,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2868,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2885,10 +2904,10 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2902,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2919,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2936,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2953,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2964,16 +2983,16 @@
         <v>59</v>
       </c>
       <c r="C114">
-        <v>15364</v>
+        <v>15633.609</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2981,16 +3000,16 @@
         <v>60</v>
       </c>
       <c r="C115">
-        <v>10409</v>
+        <v>10409.267</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3015,7 +3034,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="B118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C118">
         <v>49.6</v>
@@ -3044,7 +3063,7 @@
         <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3058,10 +3077,10 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3078,7 +3097,7 @@
         <v>22</v>
       </c>
       <c r="F121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3095,7 +3114,7 @@
         <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3112,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3126,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3143,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3164,7 +3183,7 @@
         <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3181,7 +3200,7 @@
         <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3198,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3215,7 +3234,7 @@
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3232,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3288,7 +3307,7 @@
       <c r="E134" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3307,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="F135" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3324,7 +3343,7 @@
         <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3395,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="F140" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3412,7 +3431,7 @@
         <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3561,7 +3580,7 @@
         <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3578,7 +3597,7 @@
         <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3595,7 +3614,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3612,7 +3631,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3629,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3646,7 +3665,7 @@
         <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3660,10 +3679,10 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3677,10 +3696,10 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3694,10 +3713,10 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3745,10 +3764,10 @@
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F162" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,10 +3781,10 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F163" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,7 +3801,7 @@
         <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3799,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3827,7 +3846,7 @@
         <v>30</v>
       </c>
       <c r="C168">
-        <v>6132</v>
+        <v>3488.4589999999998</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
@@ -3867,10 +3886,10 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F170" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4082,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="E184" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F184" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4099,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F185" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4116,10 +4135,10 @@
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F186" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4133,10 +4152,10 @@
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F187" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4150,10 +4169,10 @@
         <v>2</v>
       </c>
       <c r="E188" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F188" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4167,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F189" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4188,7 +4207,7 @@
         <v>18</v>
       </c>
       <c r="F190" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4205,7 +4224,7 @@
         <v>18</v>
       </c>
       <c r="F191" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4222,7 +4241,7 @@
         <v>18</v>
       </c>
       <c r="F192" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4236,10 +4255,10 @@
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F193" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4253,10 +4272,10 @@
         <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F194" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4270,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4287,10 +4306,10 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4310,7 +4329,7 @@
         <v>52</v>
       </c>
       <c r="F198" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4328,7 +4347,7 @@
         <v>52</v>
       </c>
       <c r="F199" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4346,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="F200" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4364,7 +4383,7 @@
         <v>52</v>
       </c>
       <c r="F201" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4382,7 +4401,7 @@
         <v>52</v>
       </c>
       <c r="F202" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4400,7 +4419,7 @@
         <v>52</v>
       </c>
       <c r="F203" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4418,7 +4437,7 @@
         <v>52</v>
       </c>
       <c r="F204" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4436,7 +4455,7 @@
         <v>52</v>
       </c>
       <c r="F205" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4454,7 +4473,7 @@
         <v>18</v>
       </c>
       <c r="F206" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4472,7 +4491,7 @@
         <v>52</v>
       </c>
       <c r="F207" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4490,7 +4509,7 @@
         <v>52</v>
       </c>
       <c r="F208" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4508,7 +4527,7 @@
         <v>52</v>
       </c>
       <c r="F209" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4525,7 +4544,7 @@
         <v>52</v>
       </c>
       <c r="F210" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4542,7 +4561,7 @@
         <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4593,10 +4612,10 @@
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F215" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4786,7 +4805,7 @@
         <v>18</v>
       </c>
       <c r="F227" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4804,7 +4823,7 @@
         <v>62</v>
       </c>
       <c r="F228" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4822,7 +4841,7 @@
         <v>62</v>
       </c>
       <c r="F229" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4839,7 +4858,7 @@
         <v>62</v>
       </c>
       <c r="F230" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4856,7 +4875,7 @@
         <v>62</v>
       </c>
       <c r="F231" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4873,7 +4892,7 @@
         <v>62</v>
       </c>
       <c r="F232" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4890,7 +4909,7 @@
         <v>62</v>
       </c>
       <c r="F233" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4908,7 +4927,7 @@
         <v>62</v>
       </c>
       <c r="F234" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4925,7 +4944,7 @@
         <v>62</v>
       </c>
       <c r="F235" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4943,7 +4962,7 @@
         <v>62</v>
       </c>
       <c r="F236" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4960,7 +4979,7 @@
         <v>62</v>
       </c>
       <c r="F237" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4977,7 +4996,7 @@
         <v>62</v>
       </c>
       <c r="F238" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4994,7 +5013,7 @@
         <v>62</v>
       </c>
       <c r="F239" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5062,10 +5081,10 @@
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F244" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5079,10 +5098,10 @@
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F245" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5096,10 +5115,10 @@
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F246" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5116,7 +5135,7 @@
         <v>18</v>
       </c>
       <c r="F247" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5134,7 +5153,7 @@
         <v>18</v>
       </c>
       <c r="F248" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5148,10 +5167,10 @@
         <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F249" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5165,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F250" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5182,10 +5201,10 @@
         <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F251" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5211,16 +5230,16 @@
         <v>59</v>
       </c>
       <c r="C253" s="4">
-        <v>12848</v>
+        <v>12847.5</v>
       </c>
       <c r="D253" t="s">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F253" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5234,10 +5253,10 @@
         <v>2</v>
       </c>
       <c r="E254" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F254" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5271,10 +5290,10 @@
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F257" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5288,10 +5307,10 @@
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F258" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5305,10 +5324,10 @@
         <v>2</v>
       </c>
       <c r="E259" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F259" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5322,10 +5341,10 @@
         <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F260" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5350,16 +5369,16 @@
         <v>59</v>
       </c>
       <c r="C262" s="4">
-        <v>5174</v>
+        <v>5173.6819999999998</v>
       </c>
       <c r="D262" t="s">
         <v>2</v>
       </c>
       <c r="E262" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F262" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5367,16 +5386,16 @@
         <v>60</v>
       </c>
       <c r="C263" s="4">
-        <v>4265</v>
+        <v>4264.8010000000004</v>
       </c>
       <c r="D263" t="s">
         <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F263" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5591,7 +5610,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="B278" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C278" s="4">
         <v>72</v>
@@ -5795,7 +5814,7 @@
         <v>18</v>
       </c>
       <c r="F290" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6002,12 +6021,12 @@
         <v>18</v>
       </c>
       <c r="F303" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="B304" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C304" s="4">
         <f>C302-C303</f>
@@ -6079,16 +6098,16 @@
         <v>59</v>
       </c>
       <c r="C308" s="4">
-        <v>13816</v>
+        <v>13815.804</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F308" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6096,16 +6115,16 @@
         <v>60</v>
       </c>
       <c r="C309" s="4">
-        <v>8121</v>
+        <v>8121.3010000000004</v>
       </c>
       <c r="D309" t="s">
         <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F309" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6142,7 +6161,7 @@
         <v>86</v>
       </c>
       <c r="F312" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6160,7 +6179,7 @@
         <v>86</v>
       </c>
       <c r="F313" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6177,7 +6196,7 @@
         <v>18</v>
       </c>
       <c r="F314" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6194,7 +6213,7 @@
         <v>86</v>
       </c>
       <c r="F315" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6211,7 +6230,7 @@
         <v>86</v>
       </c>
       <c r="F316" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6228,7 +6247,7 @@
         <v>86</v>
       </c>
       <c r="F317" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6245,7 +6264,7 @@
         <v>86</v>
       </c>
       <c r="F318" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6263,7 +6282,7 @@
         <v>86</v>
       </c>
       <c r="F319" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6280,7 +6299,7 @@
         <v>86</v>
       </c>
       <c r="F320" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6297,7 +6316,7 @@
         <v>86</v>
       </c>
       <c r="F321" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6314,7 +6333,7 @@
         <v>86</v>
       </c>
       <c r="F322" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6331,7 +6350,7 @@
         <v>86</v>
       </c>
       <c r="F323" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6365,10 +6384,10 @@
         <v>2</v>
       </c>
       <c r="E326" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F326" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6382,10 +6401,10 @@
         <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F327" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6399,10 +6418,10 @@
         <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F328" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6453,12 +6472,12 @@
         <v>18</v>
       </c>
       <c r="F331" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="B332" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C332" s="4">
         <f>C329-C331-C330</f>
@@ -6471,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="F332" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -6731,10 +6750,10 @@
         <v>2</v>
       </c>
       <c r="E349" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F349" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="6" customFormat="1">
@@ -6748,10 +6767,10 @@
         <v>2</v>
       </c>
       <c r="E350" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F350" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="6" customFormat="1">
@@ -6765,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="E351" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F351" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="6" customFormat="1">
@@ -6782,10 +6801,10 @@
         <v>2</v>
       </c>
       <c r="E352" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F352" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -6833,10 +6852,10 @@
         <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F355" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -6907,7 +6926,7 @@
         <v>27</v>
       </c>
       <c r="F360" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -6921,10 +6940,10 @@
         <v>2</v>
       </c>
       <c r="E361" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F361" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -6938,10 +6957,10 @@
         <v>2</v>
       </c>
       <c r="E362" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F362" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -6958,7 +6977,7 @@
         <v>18</v>
       </c>
       <c r="F363" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -6973,10 +6992,10 @@
         <v>2</v>
       </c>
       <c r="E364" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F364" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -6990,10 +7009,10 @@
         <v>2</v>
       </c>
       <c r="E365" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F365" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7007,10 +7026,10 @@
         <v>2</v>
       </c>
       <c r="E366" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F366" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7024,10 +7043,10 @@
         <v>2</v>
       </c>
       <c r="E367" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F367" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7041,10 +7060,10 @@
         <v>2</v>
       </c>
       <c r="E368" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F368" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7062,7 +7081,7 @@
         <v>16</v>
       </c>
       <c r="F369" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7080,7 +7099,7 @@
         <v>16</v>
       </c>
       <c r="F370" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7094,10 +7113,10 @@
         <v>2</v>
       </c>
       <c r="E371" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F371" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7111,10 +7130,10 @@
         <v>2</v>
       </c>
       <c r="E372" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F372" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7128,10 +7147,10 @@
         <v>2</v>
       </c>
       <c r="E373" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F373" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7148,7 +7167,7 @@
         <v>27</v>
       </c>
       <c r="F374" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7162,10 +7181,10 @@
         <v>2</v>
       </c>
       <c r="E375" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F375" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7179,15 +7198,15 @@
         <v>2</v>
       </c>
       <c r="E376" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F376" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B378" t="s">
         <v>4</v>
@@ -7202,7 +7221,7 @@
         <v>27</v>
       </c>
       <c r="F378" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -7216,10 +7235,10 @@
         <v>2</v>
       </c>
       <c r="E379" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F379" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -7233,10 +7252,10 @@
         <v>2</v>
       </c>
       <c r="E380" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F380" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -7250,15 +7269,15 @@
         <v>2</v>
       </c>
       <c r="E381" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F381" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="B382" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C382">
         <v>3787</v>
@@ -7267,10 +7286,10 @@
         <v>2</v>
       </c>
       <c r="E382" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F382" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -7284,10 +7303,10 @@
         <v>2</v>
       </c>
       <c r="E383" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F383" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -7301,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="E384" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F384" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="385" spans="2:6">
@@ -7318,10 +7337,10 @@
         <v>2</v>
       </c>
       <c r="E385" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F385" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="386" spans="2:6">
@@ -7335,10 +7354,10 @@
         <v>2</v>
       </c>
       <c r="E386" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F386" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="387" spans="2:6">
@@ -7352,10 +7371,10 @@
         <v>2</v>
       </c>
       <c r="E387" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F387" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="388" spans="2:6">
@@ -7369,10 +7388,10 @@
         <v>2</v>
       </c>
       <c r="E388" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F388" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="389" spans="2:6">
@@ -7390,7 +7409,7 @@
         <v>27</v>
       </c>
       <c r="F389" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="390" spans="2:6">
@@ -7398,16 +7417,16 @@
         <v>59</v>
       </c>
       <c r="C390">
-        <v>21332</v>
+        <v>21332.445</v>
       </c>
       <c r="D390" t="s">
         <v>2</v>
       </c>
       <c r="E390" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F390" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="391" spans="2:6">
@@ -7415,22 +7434,25 @@
         <v>60</v>
       </c>
       <c r="C391">
-        <v>2225</v>
+        <v>2224.7640000000001</v>
       </c>
       <c r="D391" t="s">
         <v>2</v>
       </c>
       <c r="E391" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F391" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F134" r:id="rId1" xr:uid="{11EF2212-481B-4F0D-BB04-01845FE1D5E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7439,7 +7461,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7459,7 +7481,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="18" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>4</v>
@@ -7530,7 +7552,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11">
         <f>'National Statistics'!C2</f>
@@ -7607,7 +7629,7 @@
       </c>
       <c r="C3" s="11">
         <f>'National Statistics'!C19</f>
-        <v>4504</v>
+        <v>3484</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -7727,7 +7749,7 @@
       </c>
       <c r="V4" s="11">
         <f>'National Statistics'!C49</f>
-        <v>2222.73</v>
+        <v>2222.7260000000001</v>
       </c>
       <c r="W4" s="11">
         <f>'National Statistics'!C50</f>
@@ -7736,7 +7758,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="11">
         <f>'National Statistics'!C52</f>
@@ -7862,11 +7884,11 @@
       </c>
       <c r="V6" s="11">
         <f>'National Statistics'!C82</f>
-        <v>11573</v>
+        <v>11573.41</v>
       </c>
       <c r="W6" s="11">
         <f>'National Statistics'!C83</f>
-        <v>25481</v>
+        <v>25480.503000000001</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7952,7 +7974,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="11">
         <f>'National Statistics'!C105</f>
@@ -8003,11 +8025,11 @@
       </c>
       <c r="V8" s="11">
         <f>'National Statistics'!C114</f>
-        <v>15364</v>
+        <v>15633.609</v>
       </c>
       <c r="W8" s="11">
         <f>'National Statistics'!C115</f>
-        <v>10409</v>
+        <v>10409.267</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -8230,7 +8252,7 @@
       </c>
       <c r="C12" s="11">
         <f>'National Statistics'!C168</f>
-        <v>6132</v>
+        <v>3488.4589999999998</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -8612,7 +8634,7 @@
       </c>
       <c r="V17" s="11">
         <f>'National Statistics'!C253</f>
-        <v>12848</v>
+        <v>12847.5</v>
       </c>
       <c r="W17" s="11">
         <f>'National Statistics'!C254</f>
@@ -8663,11 +8685,11 @@
       </c>
       <c r="V18" s="11">
         <f>'National Statistics'!C262</f>
-        <v>5174</v>
+        <v>5173.6819999999998</v>
       </c>
       <c r="W18" s="11">
         <f>'National Statistics'!C263</f>
-        <v>4265</v>
+        <v>4264.8010000000004</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -8891,11 +8913,11 @@
       </c>
       <c r="V22" s="11">
         <f>'National Statistics'!C308</f>
-        <v>13816</v>
+        <v>13815.804</v>
       </c>
       <c r="W22" s="11">
         <f>'National Statistics'!C309</f>
-        <v>8121</v>
+        <v>8121.3010000000004</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -9206,7 +9228,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="11">
         <f>'National Statistics'!C378</f>
@@ -9263,11 +9285,11 @@
       </c>
       <c r="V28" s="11">
         <f>'National Statistics'!C390</f>
-        <v>21332</v>
+        <v>21332.445</v>
       </c>
       <c r="W28" s="11">
         <f>'National Statistics'!C391</f>
-        <v>2225</v>
+        <v>2224.7640000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9278,1291 +9300,1461 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF19EE-9FBC-4AA2-A7F7-967BADD9F147}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="32"/>
+    <col min="2" max="3" width="11" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="32"/>
+    <col min="9" max="9" width="9.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="O1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="P1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="Q1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="32">
+    <row r="2" spans="1:17">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37">
         <v>91.3</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="37">
         <v>3484.3</v>
       </c>
       <c r="D2" s="37">
         <v>23984.5</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="37">
         <v>160.80000000000001</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="37">
         <v>0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="37">
         <v>0</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="38">
+        <v>1356.9</v>
+      </c>
+      <c r="I2" s="37">
         <v>0</v>
       </c>
-      <c r="I2" s="47">
+      <c r="J2" s="37">
         <v>1328.8</v>
       </c>
-      <c r="J2" s="49">
+      <c r="K2" s="37">
         <v>28597</v>
       </c>
-      <c r="K2" s="50">
+      <c r="L2" s="38">
+        <v>967.6</v>
+      </c>
+      <c r="M2" s="37">
         <v>3902.9</v>
       </c>
-      <c r="L2" s="51">
+      <c r="N2" s="37">
         <v>7464.7</v>
       </c>
-      <c r="M2" s="53">
+      <c r="O2" s="37">
         <v>21635.9</v>
       </c>
-      <c r="N2" s="55">
+      <c r="P2" s="37">
         <v>4308.3999999999996</v>
       </c>
-      <c r="O2" s="15">
+      <c r="Q2" s="33">
         <v>69212.346999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="32">
+    <row r="3" spans="1:17">
+      <c r="A3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="37">
         <v>18659.473000000002</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="37">
         <v>1280.0350000000001</v>
       </c>
       <c r="D3" s="37">
         <v>2016.9169999999999</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <v>337.95</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="37">
         <v>0</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="37">
         <v>0</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="39">
+        <v>19.183</v>
+      </c>
+      <c r="I3" s="37">
         <v>0</v>
       </c>
-      <c r="I3" s="47">
+      <c r="J3" s="37">
         <v>5422.732</v>
       </c>
-      <c r="J3" s="49">
+      <c r="K3" s="37">
         <v>16125.281000000001</v>
       </c>
-      <c r="K3" s="50">
+      <c r="L3" s="39">
+        <v>80.638000000000005</v>
+      </c>
+      <c r="M3" s="37">
         <v>1342.7750000000001</v>
       </c>
-      <c r="L3" s="51">
+      <c r="N3" s="37">
         <v>1318.123</v>
       </c>
-      <c r="M3" s="53">
+      <c r="O3" s="37">
         <v>2222.7260000000001</v>
       </c>
-      <c r="N3" s="55">
+      <c r="P3" s="37">
         <v>10030.049999999999</v>
       </c>
-      <c r="O3" s="15">
+      <c r="Q3" s="33">
         <v>41705</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="32">
+    <row r="4" spans="1:17">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="37">
         <v>41201.476000000002</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="37">
         <v>2120.884</v>
       </c>
       <c r="D4" s="37">
         <v>3750.4650000000001</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <v>107.84099999999999</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="37">
         <v>0</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="38">
+        <v>80.61</v>
+      </c>
+      <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="I4" s="47">
+      <c r="J4" s="37">
         <v>2679.4180000000001</v>
       </c>
-      <c r="J4" s="49">
+      <c r="K4" s="37">
         <v>29921.311000000002</v>
       </c>
-      <c r="K4" s="50">
+      <c r="L4" s="40">
+        <v>100.18899999999999</v>
+      </c>
+      <c r="M4" s="37">
         <v>2358.8809999999999</v>
       </c>
-      <c r="L4" s="51">
+      <c r="N4" s="37">
         <v>609.33000000000004</v>
       </c>
-      <c r="M4" s="53">
+      <c r="O4" s="37">
         <v>11573.41</v>
       </c>
-      <c r="N4" s="55">
+      <c r="P4" s="37">
         <v>25480.503000000001</v>
       </c>
-      <c r="O4" s="15">
+      <c r="Q4" s="33">
         <v>81967.627000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="32">
+    <row r="5" spans="1:17">
+      <c r="A5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="37">
         <v>6567.3450000000003</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="37">
         <v>4416.6369999999997</v>
       </c>
       <c r="D5" s="37">
         <v>2071.9180000000001</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <v>263.74599999999998</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <v>0</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="37">
         <v>0</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
+        <v>704.21100000000001</v>
+      </c>
+      <c r="I5" s="37">
         <v>0</v>
       </c>
-      <c r="I5" s="47">
+      <c r="J5" s="37">
         <v>14.862</v>
       </c>
-      <c r="J5" s="49">
+      <c r="K5" s="37">
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="L5" s="39">
+        <v>860.702</v>
+      </c>
+      <c r="M5" s="37">
         <v>952.97299999999996</v>
       </c>
-      <c r="L5" s="51">
+      <c r="N5" s="37">
         <v>13901.955</v>
       </c>
-      <c r="M5" s="53">
+      <c r="O5" s="37">
         <v>15633.609</v>
       </c>
-      <c r="N5" s="55">
+      <c r="P5" s="37">
         <v>10409.267</v>
       </c>
-      <c r="O5" s="15">
+      <c r="Q5" s="33">
         <v>28939.089</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="32">
+    <row r="6" spans="1:17">
+      <c r="A6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="37">
         <v>228156</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="37">
         <v>11167</v>
       </c>
       <c r="D6" s="37">
         <v>83425</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="37">
         <v>5186</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <v>0</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="37">
         <v>0</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="38">
+        <v>7066</v>
+      </c>
+      <c r="I6" s="37">
         <v>178</v>
       </c>
-      <c r="I6" s="47">
+      <c r="J6" s="37">
         <v>23863</v>
       </c>
-      <c r="J6" s="49">
+      <c r="K6" s="37">
         <v>76005</v>
       </c>
-      <c r="K6" s="50">
+      <c r="L6" s="38">
+        <v>6163</v>
+      </c>
+      <c r="M6" s="37">
         <v>45784</v>
       </c>
-      <c r="L6" s="51">
+      <c r="N6" s="37">
         <v>109951</v>
       </c>
-      <c r="M6" s="53">
+      <c r="O6" s="37">
         <v>31727</v>
       </c>
-      <c r="N6" s="55">
+      <c r="P6" s="37">
         <v>80463</v>
       </c>
-      <c r="O6" s="15">
+      <c r="Q6" s="33">
         <v>571799.71300000011</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="32">
+    <row r="7" spans="1:17">
+      <c r="A7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="37">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="37">
         <v>1223</v>
       </c>
       <c r="D7" s="37">
         <v>58</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="37">
         <v>83</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="37">
         <v>9380</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="37">
         <v>47</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="39">
+        <v>96.838999999999999</v>
+      </c>
+      <c r="I7" s="37">
         <v>0</v>
       </c>
-      <c r="I7" s="47">
+      <c r="J7" s="37">
         <v>15</v>
       </c>
-      <c r="J7" s="49">
+      <c r="K7" s="37">
         <v>0</v>
       </c>
-      <c r="K7" s="50">
+      <c r="L7" s="41">
+        <v>46</v>
+      </c>
+      <c r="M7" s="37">
         <v>30.802</v>
       </c>
-      <c r="L7" s="51">
+      <c r="N7" s="37">
         <v>636</v>
       </c>
-      <c r="M7" s="53">
+      <c r="O7" s="37">
         <v>3053</v>
       </c>
-      <c r="N7" s="55">
+      <c r="P7" s="37">
         <v>4950</v>
       </c>
-      <c r="O7" s="15">
+      <c r="Q7" s="33">
         <v>10834.142999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="32">
+    <row r="8" spans="1:17">
+      <c r="A8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="37">
         <v>2151.674</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="37">
         <v>334.09300000000002</v>
       </c>
       <c r="D8" s="37">
         <v>16013.964</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="37">
         <v>139.422</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="37">
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="37">
         <v>2090.7159999999999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="40">
+        <v>301.58800000000002</v>
+      </c>
+      <c r="I8" s="37">
         <v>0</v>
       </c>
-      <c r="I8" s="47">
+      <c r="J8" s="37">
         <v>931.65899999999999</v>
       </c>
-      <c r="J8" s="49">
+      <c r="K8" s="37">
         <v>0</v>
       </c>
-      <c r="K8" s="50">
+      <c r="L8" s="40">
+        <v>330.15600000000001</v>
+      </c>
+      <c r="M8" s="37">
         <v>16.655999999999999</v>
       </c>
-      <c r="L8" s="51">
+      <c r="N8" s="37">
         <v>8639.7669999999998</v>
       </c>
-      <c r="M8" s="53">
+      <c r="O8" s="37">
         <v>1621.519</v>
       </c>
-      <c r="N8" s="55">
+      <c r="P8" s="37">
         <v>1649.249</v>
       </c>
-      <c r="O8" s="15">
+      <c r="Q8" s="33">
         <v>29234.886000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="32">
+    <row r="9" spans="1:17">
+      <c r="A9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="37">
         <v>17185.154999999999</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="37">
         <v>11.939</v>
       </c>
       <c r="D9" s="37">
         <v>14080.102000000001</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="37">
         <v>5546.5060000000003</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="37">
         <v>0</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="37">
         <v>0</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="41">
+        <v>286.14</v>
+      </c>
+      <c r="I9" s="37">
         <v>0</v>
       </c>
-      <c r="I9" s="47">
+      <c r="J9" s="37">
         <v>5759.9009999999998</v>
       </c>
-      <c r="J9" s="49">
+      <c r="K9" s="37">
         <v>0</v>
       </c>
-      <c r="K9" s="50">
+      <c r="L9" s="41">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
         <v>3790.652</v>
       </c>
-      <c r="L9" s="51">
+      <c r="N9" s="37">
         <v>6300.259</v>
       </c>
-      <c r="M9" s="53">
+      <c r="O9" s="37">
         <v>8550</v>
       </c>
-      <c r="N9" s="55">
+      <c r="P9" s="37">
         <v>2272</v>
       </c>
-      <c r="O9" s="15">
+      <c r="Q9" s="33">
         <v>50708.949000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="32">
+    <row r="10" spans="1:17">
+      <c r="A10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="37">
         <v>37341</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="37">
         <v>4221</v>
       </c>
       <c r="D10" s="37">
         <v>58004</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>14498</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="37">
         <v>0</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="37">
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="38">
+        <v>1020</v>
+      </c>
+      <c r="I10" s="37">
         <v>0</v>
       </c>
-      <c r="I10" s="47">
+      <c r="J10" s="37">
         <v>36803</v>
       </c>
-      <c r="J10" s="49">
+      <c r="K10" s="37">
         <v>55766</v>
       </c>
-      <c r="K10" s="50">
+      <c r="L10" s="38">
+        <v>755</v>
+      </c>
+      <c r="M10" s="37">
         <f>4867+7877</f>
         <v>12744</v>
       </c>
-      <c r="L10" s="51">
+      <c r="N10" s="37">
         <v>50896</v>
       </c>
-      <c r="M10" s="53">
+      <c r="O10" s="37">
         <v>24018</v>
       </c>
-      <c r="N10" s="55">
+      <c r="P10" s="37">
         <v>12916</v>
       </c>
-      <c r="O10" s="15">
+      <c r="Q10" s="33">
         <v>261071.19100000005</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="32">
+    <row r="11" spans="1:17">
+      <c r="A11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="37">
         <v>8309.4959999999992</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="37">
         <v>3806.136</v>
       </c>
       <c r="D11" s="37">
         <v>30611.537</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>5717.9059999999999</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="37">
         <v>0</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="37">
         <v>0</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="39">
+        <v>2396.4769999999999</v>
+      </c>
+      <c r="I11" s="37">
         <v>126.97499999999999</v>
       </c>
-      <c r="I11" s="47">
+      <c r="J11" s="37">
         <v>70472.115000000005</v>
       </c>
-      <c r="J11" s="49">
+      <c r="K11" s="37">
         <v>412941.81199999998</v>
       </c>
-      <c r="K11" s="50">
+      <c r="L11" s="39">
+        <v>2202.1329999999998</v>
+      </c>
+      <c r="M11" s="37">
         <v>10891.159</v>
       </c>
-      <c r="L11" s="51">
+      <c r="N11" s="37">
         <v>28598.595000000001</v>
       </c>
-      <c r="M11" s="53">
+      <c r="O11" s="37">
         <v>13512.09</v>
       </c>
-      <c r="N11" s="55">
+      <c r="P11" s="37">
         <v>76478.785000000003</v>
       </c>
-      <c r="O11" s="15">
+      <c r="Q11" s="33">
         <v>551685.82300000009</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="32">
+    <row r="12" spans="1:17">
+      <c r="A12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="37">
         <v>28469.867999999999</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="37">
         <v>4191.3900000000003</v>
       </c>
       <c r="D12" s="37">
         <v>128537.553</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <v>11029.13</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="37">
         <v>0</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="37">
         <v>0</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="38">
+        <v>2453.89</v>
+      </c>
+      <c r="I12" s="37">
         <v>6105.39</v>
       </c>
-      <c r="I12" s="47">
+      <c r="J12" s="37">
         <v>50502.750999999997</v>
       </c>
-      <c r="J12" s="49">
+      <c r="K12" s="37">
         <v>0</v>
       </c>
-      <c r="K12" s="50">
+      <c r="L12" s="40">
+        <v>2370.9259999999999</v>
+      </c>
+      <c r="M12" s="37">
         <v>22653.838</v>
       </c>
-      <c r="L12" s="51">
+      <c r="N12" s="37">
         <v>17716.434000000001</v>
       </c>
-      <c r="M12" s="53">
+      <c r="O12" s="37">
         <v>47170.203999999998</v>
       </c>
-      <c r="N12" s="55">
+      <c r="P12" s="37">
         <v>3271.415</v>
       </c>
-      <c r="O12" s="15">
+      <c r="Q12" s="33">
         <v>280234</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="32">
+    <row r="13" spans="1:17">
+      <c r="A13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="37">
         <v>0.34300000000000003</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="37">
         <v>569.56500000000005</v>
       </c>
       <c r="D13" s="37">
         <v>3218.6970000000001</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="37">
         <v>0.316</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="37">
         <v>0</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="37">
         <v>6.9240000000000004</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="41">
         <v>0</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
         <v>2431.569</v>
       </c>
-      <c r="J13" s="49">
+      <c r="K13" s="37">
         <v>0</v>
       </c>
-      <c r="K13" s="50">
+      <c r="L13" s="41">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
         <v>1.2729999999999999</v>
       </c>
-      <c r="L13" s="51">
+      <c r="N13" s="37">
         <v>122.038</v>
       </c>
-      <c r="M13" s="53">
+      <c r="O13" s="37">
         <v>5173.6819999999998</v>
       </c>
-      <c r="N13" s="55">
+      <c r="P13" s="37">
         <v>4264.8010000000004</v>
       </c>
-      <c r="O13" s="15">
+      <c r="Q13" s="33">
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="32">
+    <row r="14" spans="1:17">
+      <c r="A14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="37">
         <v>0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="37">
         <v>355.1</v>
       </c>
       <c r="D14" s="37">
         <v>330.3</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="37">
         <v>131.4</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="37">
         <v>0</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="37">
         <v>0</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="38">
+        <v>84.5</v>
+      </c>
+      <c r="I14" s="37">
         <v>0</v>
       </c>
-      <c r="I14" s="47">
+      <c r="J14" s="37">
         <v>959.6</v>
       </c>
-      <c r="J14" s="49">
+      <c r="K14" s="37">
         <v>0</v>
       </c>
-      <c r="K14" s="50">
+      <c r="L14" s="38">
+        <v>48</v>
+      </c>
+      <c r="M14" s="37">
         <v>86.6</v>
       </c>
-      <c r="L14" s="51">
+      <c r="N14" s="37">
         <v>1144</v>
       </c>
-      <c r="M14" s="53">
+      <c r="O14" s="37">
         <v>12847.5</v>
       </c>
-      <c r="N14" s="55">
+      <c r="P14" s="37">
         <v>3215</v>
       </c>
-      <c r="O14" s="15">
+      <c r="Q14" s="33">
         <v>3183.0950000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="32">
+    <row r="15" spans="1:17">
+      <c r="A15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="37">
         <v>4669</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="37">
         <v>1799</v>
       </c>
       <c r="D15" s="37">
         <v>7255</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="37">
         <v>90</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="37">
         <v>0</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="37">
         <v>0</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="41">
+        <v>221</v>
+      </c>
+      <c r="I15" s="37">
         <v>12</v>
       </c>
-      <c r="I15" s="47">
+      <c r="J15" s="37">
         <v>222</v>
       </c>
-      <c r="J15" s="49">
+      <c r="K15" s="37">
         <v>15733</v>
       </c>
-      <c r="K15" s="50">
+      <c r="L15" s="41">
+        <v>162</v>
+      </c>
+      <c r="M15" s="37">
         <v>629</v>
       </c>
-      <c r="L15" s="51">
+      <c r="N15" s="37">
         <v>607</v>
       </c>
-      <c r="M15" s="53">
+      <c r="O15" s="37">
         <v>18613</v>
       </c>
-      <c r="N15" s="55">
+      <c r="P15" s="37">
         <v>4265</v>
       </c>
-      <c r="O15" s="15">
+      <c r="Q15" s="33">
         <v>29749.879000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="32">
+    <row r="16" spans="1:17">
+      <c r="A16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="37">
         <v>27469.762999999999</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="37">
         <v>1512.1379999999999</v>
       </c>
       <c r="D16" s="37">
         <v>57493.375999999997</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <v>1290.999</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="37">
         <v>0</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="37">
         <v>0</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="38">
+        <v>2005.12</v>
+      </c>
+      <c r="I16" s="37">
         <v>0</v>
       </c>
-      <c r="I16" s="47">
+      <c r="J16" s="37">
         <v>72.347999999999999</v>
       </c>
-      <c r="J16" s="49">
+      <c r="K16" s="37">
         <v>3514.77</v>
       </c>
-      <c r="K16" s="50">
+      <c r="L16" s="40">
+        <v>2172.2130000000002</v>
+      </c>
+      <c r="M16" s="37">
         <v>3709.364</v>
       </c>
-      <c r="L16" s="51">
+      <c r="N16" s="37">
         <v>10548.511</v>
       </c>
-      <c r="M16" s="53">
+      <c r="O16" s="37">
         <v>26754.589</v>
       </c>
-      <c r="N16" s="55">
+      <c r="P16" s="37">
         <v>18784.664000000001</v>
       </c>
-      <c r="O16" s="15">
+      <c r="Q16" s="33">
         <v>112551.371</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="32">
+    <row r="17" spans="1:17">
+      <c r="A17" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="37">
         <v>1805.2829999999999</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="37">
         <v>3965.5830000000001</v>
       </c>
       <c r="D17" s="37">
         <v>9917.7350000000006</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <v>716.07100000000003</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="37">
         <v>0</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="37">
         <v>0</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="39">
+        <v>716.44399999999996</v>
+      </c>
+      <c r="I17" s="37">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I17" s="47">
+      <c r="J17" s="37">
         <v>41219.148000000001</v>
       </c>
-      <c r="J17" s="49">
+      <c r="K17" s="37">
         <v>0</v>
       </c>
-      <c r="K17" s="50">
+      <c r="L17" s="39">
+        <v>335.80399999999997</v>
+      </c>
+      <c r="M17" s="37">
         <v>1455.1320000000001</v>
       </c>
-      <c r="L17" s="51">
+      <c r="N17" s="37">
         <v>6030.4290000000001</v>
       </c>
-      <c r="M17" s="53">
+      <c r="O17" s="37">
         <v>28076.135999999999</v>
       </c>
-      <c r="N17" s="55">
+      <c r="P17" s="37">
         <v>19129.330999999998</v>
       </c>
-      <c r="O17" s="15">
+      <c r="Q17" s="33">
         <v>65587.791999999987</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="32">
+    <row r="18" spans="1:17">
+      <c r="A18" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="37">
         <v>130562.95</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="37">
         <v>5333.2209999999995</v>
       </c>
       <c r="D18" s="37">
         <v>12634.331</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="37">
         <v>1800.172</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="37">
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="37">
         <v>0</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="40">
+        <v>437.911</v>
+      </c>
+      <c r="I18" s="37">
         <v>0</v>
       </c>
-      <c r="I18" s="47">
+      <c r="J18" s="37">
         <v>2387.4079999999999</v>
       </c>
-      <c r="J18" s="49">
+      <c r="K18" s="37">
         <v>0</v>
       </c>
-      <c r="K18" s="50">
+      <c r="L18" s="40">
+        <v>85.022999999999996</v>
+      </c>
+      <c r="M18" s="37">
         <v>300.488</v>
       </c>
-      <c r="L18" s="51">
+      <c r="N18" s="37">
         <v>12798.791999999999</v>
       </c>
-      <c r="M18" s="53">
+      <c r="O18" s="37">
         <v>13815.804</v>
       </c>
-      <c r="N18" s="55">
+      <c r="P18" s="37">
         <v>8121.3010000000004</v>
       </c>
-      <c r="O18" s="15">
+      <c r="Q18" s="33">
         <v>154096.49999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="32">
+    <row r="19" spans="1:17">
+      <c r="A19" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="37">
         <v>12006.364</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="37">
         <v>2557.605</v>
       </c>
       <c r="D19" s="37">
         <v>15611.618</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="37">
         <v>1121.866</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="37">
         <v>0</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="37">
         <v>0</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="39">
+        <v>259.26100000000002</v>
+      </c>
+      <c r="I19" s="37">
         <v>230.387</v>
       </c>
-      <c r="I19" s="47">
+      <c r="J19" s="37">
         <v>13628.259</v>
       </c>
-      <c r="J19" s="49">
+      <c r="K19" s="37">
         <v>0</v>
       </c>
-      <c r="K19" s="50">
+      <c r="L19" s="39">
+        <v>326.86799999999999</v>
+      </c>
+      <c r="M19" s="37">
         <v>1005.897</v>
       </c>
-      <c r="L19" s="51">
+      <c r="N19" s="37">
         <v>12616.584000000001</v>
       </c>
-      <c r="M19" s="53">
+      <c r="O19" s="37">
         <v>5667.5680000000002</v>
       </c>
-      <c r="N19" s="55">
+      <c r="P19" s="37">
         <v>8324.5360000000001</v>
       </c>
-      <c r="O19" s="15">
+      <c r="Q19" s="33">
         <v>58085</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="32">
+    <row r="20" spans="1:17">
+      <c r="A20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="37">
         <v>4622.2700000000004</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="37">
         <v>142.327</v>
       </c>
       <c r="D20" s="37">
         <v>478.01400000000001</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="37">
         <v>18.472999999999999</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="37">
         <v>0</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="37">
         <v>0</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="38">
+        <v>10.3</v>
+      </c>
+      <c r="I20" s="37">
         <v>0</v>
       </c>
-      <c r="I20" s="47">
+      <c r="J20" s="37">
         <v>4892.9930000000004</v>
       </c>
-      <c r="J20" s="49">
+      <c r="K20" s="37">
         <v>5776.4390000000003</v>
       </c>
-      <c r="K20" s="50">
+      <c r="L20" s="38">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
         <v>254.96100000000001</v>
       </c>
-      <c r="L20" s="51">
+      <c r="N20" s="37">
         <v>6.0209999999999999</v>
       </c>
-      <c r="M20" s="53">
+      <c r="O20" s="37">
         <v>8930.2389999999996</v>
       </c>
-      <c r="N20" s="55">
+      <c r="P20" s="37">
         <v>9432.402</v>
       </c>
-      <c r="O20" s="15">
+      <c r="Q20" s="33">
         <v>15284.254000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="32">
+    <row r="21" spans="1:17">
+      <c r="A21" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="37">
         <v>3011</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="37">
         <v>1070</v>
       </c>
       <c r="D21" s="37">
         <v>1857</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="37">
         <v>459</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="37">
         <v>0</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="37">
         <v>0</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="41">
+        <v>17</v>
+      </c>
+      <c r="I21" s="37">
         <v>0</v>
       </c>
-      <c r="I21" s="47">
+      <c r="J21" s="37">
         <v>3879</v>
       </c>
-      <c r="J21" s="49">
+      <c r="K21" s="37">
         <v>14843</v>
       </c>
-      <c r="K21" s="50">
+      <c r="L21" s="41">
+        <v>16</v>
+      </c>
+      <c r="M21" s="37">
         <v>585</v>
       </c>
-      <c r="L21" s="51">
+      <c r="N21" s="37">
         <v>6</v>
       </c>
-      <c r="M21" s="53">
+      <c r="O21" s="37">
         <v>12428</v>
       </c>
-      <c r="N21" s="55">
+      <c r="P21" s="37">
         <v>8746</v>
       </c>
-      <c r="O21" s="15">
+      <c r="Q21" s="33">
         <v>23717</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="32">
+    <row r="22" spans="1:17">
+      <c r="A22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="37">
         <v>5791</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="37">
         <v>11821.361000000001</v>
       </c>
       <c r="D22" s="37">
         <v>4194</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="37">
         <v>265</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="37">
         <v>0</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="37">
         <v>3474</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="40">
+        <v>520.90599999999995</v>
+      </c>
+      <c r="I22" s="37">
         <v>0</v>
       </c>
-      <c r="I22" s="47">
+      <c r="J22" s="37">
         <v>13301.103999999999</v>
       </c>
-      <c r="J22" s="49">
+      <c r="K22" s="37">
         <v>22793</v>
       </c>
-      <c r="K22" s="50">
+      <c r="L22" s="40">
+        <v>662.26900000000001</v>
+      </c>
+      <c r="M22" s="37">
         <v>90.224999999999994</v>
       </c>
-      <c r="L22" s="51">
+      <c r="N22" s="37">
         <v>5838.6679999999997</v>
       </c>
-      <c r="M22" s="53">
+      <c r="O22" s="37">
         <v>22548</v>
       </c>
-      <c r="N22" s="55">
+      <c r="P22" s="37">
         <v>2612</v>
       </c>
-      <c r="O22" s="15">
+      <c r="Q22" s="33">
         <v>67423.673999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="32">
+    <row r="23" spans="1:17">
+      <c r="A23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="37">
         <v>335</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="37">
         <v>10195</v>
       </c>
       <c r="D23" s="37">
         <v>376</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="37">
         <v>307</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>0</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="37">
         <v>303</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="41">
+        <v>1569</v>
+      </c>
+      <c r="I23" s="37">
         <v>0</v>
       </c>
-      <c r="I23" s="47">
+      <c r="J23" s="37">
         <v>62250</v>
       </c>
-      <c r="J23" s="49">
+      <c r="K23" s="37">
         <v>68549</v>
       </c>
-      <c r="K23" s="50">
+      <c r="L23" s="41">
+        <v>1656</v>
+      </c>
+      <c r="M23" s="37">
         <v>407</v>
       </c>
-      <c r="L23" s="51">
+      <c r="N23" s="37">
         <v>16623</v>
       </c>
-      <c r="M23" s="53">
+      <c r="O23" s="37">
         <v>12202</v>
       </c>
-      <c r="N23" s="55">
+      <c r="P23" s="37">
         <v>29425</v>
       </c>
-      <c r="O23" s="15">
+      <c r="Q23" s="33">
         <v>158287.08799999996</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="32">
+    <row r="24" spans="1:17">
+      <c r="A24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="37">
         <v>44.127000000000002</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="37">
         <v>15.775</v>
       </c>
       <c r="D24" s="37">
         <v>2180.08</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="37">
         <v>435.86200000000002</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="37">
         <v>0</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="37">
         <v>0</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="39">
+        <v>171.18899999999999</v>
+      </c>
+      <c r="I24" s="37">
         <v>0</v>
       </c>
-      <c r="I24" s="47">
+      <c r="J24" s="37">
         <v>139508.76999999999</v>
       </c>
-      <c r="J24" s="49">
+      <c r="K24" s="37">
         <v>0</v>
       </c>
-      <c r="K24" s="50">
+      <c r="L24" s="39">
+        <v>171.18899999999999</v>
+      </c>
+      <c r="M24" s="37">
         <v>2.3170000000000002</v>
       </c>
-      <c r="L24" s="51">
+      <c r="N24" s="37">
         <v>3875.8809999999999</v>
       </c>
-      <c r="M24" s="53">
+      <c r="O24" s="37">
         <v>8339.7240000000002</v>
       </c>
-      <c r="N24" s="55">
+      <c r="P24" s="37">
         <v>18488.901999999998</v>
       </c>
-      <c r="O24" s="15">
+      <c r="Q24" s="33">
         <v>146845.18699999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="32">
+    <row r="25" spans="1:17">
+      <c r="A25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="37">
         <v>16831.403999999999</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="37">
         <v>23770.175999999999</v>
       </c>
       <c r="D25" s="37">
         <v>131489.78</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="37">
         <v>1571.8610000000001</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="37">
         <v>0</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="37">
         <v>0</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="40">
+        <v>4744.7740000000003</v>
+      </c>
+      <c r="I25" s="37">
         <v>0</v>
       </c>
-      <c r="I25" s="47">
+      <c r="J25" s="37">
         <v>7942.2860000000001</v>
       </c>
-      <c r="J25" s="49">
+      <c r="K25" s="37">
         <v>65063.849000000002</v>
       </c>
-      <c r="K25" s="50">
+      <c r="L25" s="40">
+        <v>3479.585</v>
+      </c>
+      <c r="M25" s="37">
         <v>12735.51</v>
       </c>
-      <c r="L25" s="51">
+      <c r="N25" s="37">
         <v>56906.35</v>
       </c>
-      <c r="M25" s="53">
+      <c r="O25" s="37">
         <v>21332.415000000001</v>
       </c>
-      <c r="N25" s="55">
+      <c r="P25" s="37">
         <v>2224.7640000000001</v>
       </c>
-      <c r="O25" s="15">
+      <c r="Q25" s="33">
         <v>317375.62899999996</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="32">
+    <row r="26" spans="1:17">
+      <c r="A26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="37">
         <v>1554.7</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="37">
         <v>0</v>
       </c>
       <c r="D26" s="37">
         <v>0</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <v>0</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="37">
         <v>0</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="37">
         <v>0</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="41">
         <v>0</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37">
         <v>2113</v>
       </c>
-      <c r="J26" s="49">
+      <c r="K26" s="37">
         <v>0</v>
       </c>
-      <c r="K26" s="50">
+      <c r="L26" s="41">
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="M26" s="37">
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
         <v>143</v>
       </c>
-      <c r="M26" s="53">
+      <c r="O26" s="37">
         <v>780</v>
       </c>
-      <c r="N26" s="55">
+      <c r="P26" s="37">
         <v>976</v>
       </c>
-      <c r="O26" s="15">
+      <c r="Q26" s="33">
         <v>3743</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="32">
+    <row r="27" spans="1:17">
+      <c r="A27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="37">
         <v>25019.574000000001</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="37">
         <v>1E-3</v>
       </c>
       <c r="D27" s="37">
         <v>596.24800000000005</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="37">
         <v>52.191000000000003</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="37">
         <v>0</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="37">
         <v>0</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="40">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="I27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="47">
+      <c r="J27" s="37">
         <v>11393.163</v>
       </c>
-      <c r="J27" s="49">
+      <c r="K27" s="37">
         <v>0</v>
       </c>
-      <c r="K27" s="50">
+      <c r="L27" s="38">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
         <v>13.04</v>
       </c>
-      <c r="L27" s="51">
+      <c r="N27" s="37">
         <v>150.41800000000001</v>
       </c>
-      <c r="M27" s="53">
+      <c r="O27" s="37">
         <v>6400.0069999999996</v>
       </c>
-      <c r="N27" s="55">
+      <c r="P27" s="37">
         <v>6283.5129999999999</v>
       </c>
-      <c r="O27" s="15">
+      <c r="Q27" s="33">
         <v>35241.186000000009</v>
       </c>
     </row>
@@ -10575,9 +10767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3785D1F-140A-4F4D-828D-0693550C192B}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10590,32 +10782,32 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>7457.2256699999998</v>
@@ -10628,16 +10820,16 @@
         <v>9917.7350437361602</v>
       </c>
       <c r="F2">
-        <f>'EUROSTAT '!D17</f>
+        <f>EUROSTAT!D17</f>
         <v>9917.7350000000006</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>1439.14751</v>
@@ -10649,16 +10841,16 @@
         <v>1805.2829999999999</v>
       </c>
       <c r="F3">
-        <f>'EUROSTAT '!B17</f>
+        <f>EUROSTAT!B17</f>
         <v>1805.2829999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>16322.87802</v>
@@ -10671,7 +10863,7 @@
         <v>37637.910347718702</v>
       </c>
       <c r="F4">
-        <f>'EUROSTAT '!I17</f>
+        <f>EUROSTAT!J17</f>
         <v>41219.148000000001</v>
       </c>
     </row>
@@ -10680,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>1492.6863999999998</v>
@@ -10692,7 +10884,7 @@
         <v>4504</v>
       </c>
       <c r="F5">
-        <f>'EUROSTAT '!C2</f>
+        <f>EUROSTAT!C2</f>
         <v>3484.3</v>
       </c>
     </row>
@@ -10701,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>17181.8749399999</v>
@@ -10713,7 +10905,7 @@
         <v>23985</v>
       </c>
       <c r="F6">
-        <f>'EUROSTAT '!D2</f>
+        <f>EUROSTAT!D2</f>
         <v>23984.5</v>
       </c>
     </row>
@@ -10722,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>1013.8725399999901</v>
@@ -10734,7 +10926,7 @@
         <v>1329</v>
       </c>
       <c r="F7">
-        <f>'EUROSTAT '!I2</f>
+        <f>EUROSTAT!J2</f>
         <v>1328.8</v>
       </c>
     </row>
@@ -10743,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>27243.844219999999</v>
@@ -10755,7 +10947,7 @@
         <v>28597</v>
       </c>
       <c r="F8">
-        <f>'EUROSTAT '!J2</f>
+        <f>EUROSTAT!K2</f>
         <v>28597</v>
       </c>
     </row>
@@ -10764,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>3295.42688</v>
@@ -10784,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10801,7 +10993,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11">
         <v>16279.224</v>
@@ -10818,7 +11010,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>14512.379000000001</v>
@@ -10830,16 +11022,16 @@
         <v>16125</v>
       </c>
       <c r="F12">
-        <f>'EUROSTAT '!J3</f>
+        <f>EUROSTAT!K3</f>
         <v>16125.281000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>13095.37069</v>
@@ -10853,10 +11045,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>24803.487499999999</v>
@@ -10873,7 +11065,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>1729.0356999999999</v>
@@ -10885,7 +11077,7 @@
         <v>3750</v>
       </c>
       <c r="F15">
-        <f>'EUROSTAT '!D4</f>
+        <f>EUROSTAT!D4</f>
         <v>3750.4650000000001</v>
       </c>
     </row>
@@ -10894,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>1243.4261000000001</v>
@@ -10911,7 +11103,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>986.80029999999999</v>
@@ -10923,7 +11115,7 @@
         <v>2679</v>
       </c>
       <c r="F17">
-        <f>'EUROSTAT '!I4</f>
+        <f>EUROSTAT!J4</f>
         <v>2679.4180000000001</v>
       </c>
     </row>
@@ -10932,7 +11124,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>21876.550510000001</v>
@@ -10949,7 +11141,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>28183.700100000002</v>
@@ -10961,7 +11153,7 @@
         <v>29921</v>
       </c>
       <c r="F19">
-        <f>'EUROSTAT '!J4</f>
+        <f>EUROSTAT!K4</f>
         <v>29921.311000000002</v>
       </c>
     </row>
@@ -10970,7 +11162,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20">
         <v>29024.31539</v>
@@ -10982,7 +11174,7 @@
         <v>82500</v>
       </c>
       <c r="F20">
-        <f>'EUROSTAT '!D6</f>
+        <f>EUROSTAT!D6</f>
         <v>83425</v>
       </c>
     </row>
@@ -10991,7 +11183,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21">
         <v>73274.329169999997</v>
@@ -11008,7 +11200,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C22">
         <v>9687.7099899999994</v>
@@ -11020,7 +11212,7 @@
         <v>21179.935000000001</v>
       </c>
       <c r="F22">
-        <f>'EUROSTAT '!I6</f>
+        <f>EUROSTAT!J6</f>
         <v>23863</v>
       </c>
     </row>
@@ -11029,7 +11221,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <v>129230.488489999</v>
@@ -11047,7 +11239,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C24">
         <v>71795.184789999999</v>
@@ -11059,7 +11251,7 @@
         <v>76000</v>
       </c>
       <c r="F24">
-        <f>'EUROSTAT '!J6</f>
+        <f>EUROSTAT!K6</f>
         <v>76005</v>
       </c>
     </row>
@@ -11068,7 +11260,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>6423.2917400000006</v>
@@ -11080,16 +11272,16 @@
         <v>5200</v>
       </c>
       <c r="F25">
-        <f>'EUROSTAT '!E6</f>
+        <f>EUROSTAT!E6</f>
         <v>5186</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>3471.2939799999999</v>
@@ -11101,16 +11293,16 @@
         <v>4416.5370000000003</v>
       </c>
       <c r="F26">
-        <f>'EUROSTAT '!C5</f>
+        <f>EUROSTAT!C5</f>
         <v>4416.6369999999997</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>273.44310999999999</v>
@@ -11122,16 +11314,16 @@
         <v>2071.9180000000001</v>
       </c>
       <c r="F27">
-        <f>'EUROSTAT '!D5</f>
+        <f>EUROSTAT!D5</f>
         <v>2071.9180000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>5562.2132699999993</v>
@@ -11143,16 +11335,16 @@
         <v>6567.3450000000003</v>
       </c>
       <c r="F28">
-        <f>'EUROSTAT '!B5</f>
+        <f>EUROSTAT!B5</f>
         <v>6567.3450000000003</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29">
         <v>10.94191</v>
@@ -11164,16 +11356,16 @@
         <v>263.74599999999998</v>
       </c>
       <c r="F29">
-        <f>'EUROSTAT '!E5</f>
+        <f>EUROSTAT!E5</f>
         <v>263.74599999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30">
         <v>4194.5308099999993</v>
@@ -11193,7 +11385,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>9592.4315000000006</v>
@@ -11206,7 +11398,7 @@
         <v>9387</v>
       </c>
       <c r="F31">
-        <f>'EUROSTAT '!E7+'EUROSTAT '!F7</f>
+        <f>EUROSTAT!E7+EUROSTAT!F7</f>
         <v>9463</v>
       </c>
     </row>
@@ -11215,7 +11407,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>26795.465299999902</v>
@@ -11228,7 +11420,7 @@
         <v>65743.618052999998</v>
       </c>
       <c r="F32">
-        <f>'EUROSTAT '!D10</f>
+        <f>EUROSTAT!D10</f>
         <v>58004</v>
       </c>
     </row>
@@ -11237,7 +11429,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>35004.169299999994</v>
@@ -11249,7 +11441,7 @@
         <v>11700</v>
       </c>
       <c r="F33">
-        <f>'EUROSTAT '!B10</f>
+        <f>EUROSTAT!B10</f>
         <v>37341</v>
       </c>
     </row>
@@ -11258,7 +11450,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C34">
         <v>8507.3086000000003</v>
@@ -11270,7 +11462,7 @@
         <v>34130</v>
       </c>
       <c r="F34">
-        <f>'EUROSTAT '!I10</f>
+        <f>EUROSTAT!J10</f>
         <v>36803</v>
       </c>
     </row>
@@ -11279,7 +11471,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>53312.689299999998</v>
@@ -11291,7 +11483,7 @@
         <v>53197.617429999998</v>
       </c>
       <c r="F35">
-        <f>'EUROSTAT '!J10</f>
+        <f>EUROSTAT!K10</f>
         <v>55766</v>
       </c>
     </row>
@@ -11300,7 +11492,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <v>1627.93505</v>
@@ -11309,10 +11501,10 @@
         <v>6405.4359999999997</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F36">
-        <f>'EUROSTAT '!C22</f>
+        <f>EUROSTAT!C22</f>
         <v>11821.361000000001</v>
       </c>
     </row>
@@ -11321,7 +11513,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37">
         <v>2088.8045099999999</v>
@@ -11333,7 +11525,7 @@
         <v>4194</v>
       </c>
       <c r="F37">
-        <f>'EUROSTAT '!D22</f>
+        <f>EUROSTAT!D22</f>
         <v>4194</v>
       </c>
     </row>
@@ -11342,7 +11534,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38">
         <v>5099.77675</v>
@@ -11354,7 +11546,7 @@
         <v>5791</v>
       </c>
       <c r="F38">
-        <f>'EUROSTAT '!B22</f>
+        <f>EUROSTAT!B22</f>
         <v>5791</v>
       </c>
     </row>
@@ -11363,7 +11555,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39">
         <v>21887.999549999899</v>
@@ -11375,7 +11567,7 @@
         <v>21881</v>
       </c>
       <c r="F39">
-        <f>'EUROSTAT '!J22</f>
+        <f>EUROSTAT!K22</f>
         <v>22793</v>
       </c>
     </row>
@@ -11384,7 +11576,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40">
         <v>3397.1646700000001</v>
@@ -11396,7 +11588,7 @@
         <v>3739</v>
       </c>
       <c r="F40">
-        <f>'EUROSTAT '!E22+'EUROSTAT '!G22</f>
+        <f>EUROSTAT!E22+EUROSTAT!G22</f>
         <v>3739</v>
       </c>
     </row>
@@ -11405,7 +11597,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>329.44726000000003</v>
@@ -11417,7 +11609,7 @@
         <v>6132</v>
       </c>
       <c r="F41">
-        <f>'EUROSTAT '!C11</f>
+        <f>EUROSTAT!C11</f>
         <v>3806.136</v>
       </c>
     </row>
@@ -11426,7 +11618,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42">
         <v>20270.423190000001</v>
@@ -11438,7 +11630,7 @@
         <v>30588</v>
       </c>
       <c r="F42">
-        <f>'EUROSTAT '!D11</f>
+        <f>EUROSTAT!D11</f>
         <v>30611.537</v>
       </c>
     </row>
@@ -11447,7 +11639,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C43">
         <v>5651.1946799999996</v>
@@ -11456,10 +11648,10 @@
         <v>5799.7380000000003</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F43">
-        <f>'EUROSTAT '!B11</f>
+        <f>EUROSTAT!B11</f>
         <v>8309.4959999999992</v>
       </c>
     </row>
@@ -11468,7 +11660,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C44">
         <v>10004.733</v>
@@ -11480,7 +11672,7 @@
         <v>65923.990000000005</v>
       </c>
       <c r="F44">
-        <f>'EUROSTAT '!I11</f>
+        <f>EUROSTAT!J11</f>
         <v>70472.115000000005</v>
       </c>
     </row>
@@ -11489,7 +11681,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45">
         <v>392536.86300000001</v>
@@ -11501,7 +11693,7 @@
         <v>412942</v>
       </c>
       <c r="F45">
-        <f>'EUROSTAT '!J11</f>
+        <f>EUROSTAT!K11</f>
         <v>412941.81199999998</v>
       </c>
     </row>
@@ -11510,7 +11702,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>262.66399999999999</v>
@@ -11522,16 +11714,16 @@
         <v>6001</v>
       </c>
       <c r="F46">
-        <f>'EUROSTAT '!E11</f>
+        <f>EUROSTAT!E11</f>
         <v>5717.9059999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47">
         <v>11844.056789999999</v>
@@ -11543,16 +11735,16 @@
         <v>35600</v>
       </c>
       <c r="F47">
-        <f>'EUROSTAT '!C25</f>
+        <f>EUROSTAT!C25</f>
         <v>23770.175999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48">
         <v>91207.96127</v>
@@ -11564,16 +11756,16 @@
         <v>127761</v>
       </c>
       <c r="F48">
-        <f>'EUROSTAT '!D25</f>
+        <f>EUROSTAT!D25</f>
         <v>131489.78</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <v>11004.849305</v>
@@ -11585,16 +11777,16 @@
         <v>16800</v>
       </c>
       <c r="F49">
-        <f>'EUROSTAT '!B25</f>
+        <f>EUROSTAT!B25</f>
         <v>16831.403999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C50">
         <v>3555.4043550000001</v>
@@ -11606,16 +11798,16 @@
         <v>6277</v>
       </c>
       <c r="F50">
-        <f>'EUROSTAT '!I25</f>
+        <f>EUROSTAT!J25</f>
         <v>7942.2860000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C51">
         <v>45439.791744999995</v>
@@ -11627,16 +11819,16 @@
         <v>59098</v>
       </c>
       <c r="F51">
-        <f>'EUROSTAT '!J25</f>
+        <f>EUROSTAT!K25</f>
         <v>65063.849000000002</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52">
         <v>226.062895</v>
@@ -11648,16 +11840,16 @@
         <v>1571.8610000000001</v>
       </c>
       <c r="F52">
-        <f>'EUROSTAT '!E25</f>
+        <f>EUROSTAT!E25</f>
         <v>1571.8610000000001</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>15183.880625</v>
@@ -11671,10 +11863,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C54">
         <v>7732.48044999999</v>
@@ -11691,7 +11883,7 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55">
         <v>15146.233</v>
@@ -11703,7 +11895,7 @@
         <v>14080.1</v>
       </c>
       <c r="F55">
-        <f>'EUROSTAT '!D9</f>
+        <f>EUROSTAT!D9</f>
         <v>14080.102000000001</v>
       </c>
     </row>
@@ -11712,7 +11904,7 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56">
         <v>5012.6970000000001</v>
@@ -11721,7 +11913,7 @@
         <v>5759</v>
       </c>
       <c r="F56">
-        <f>'EUROSTAT '!I9</f>
+        <f>EUROSTAT!J9</f>
         <v>5759.9009999999998</v>
       </c>
     </row>
@@ -11730,7 +11922,7 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C57">
         <v>15188.995999999999</v>
@@ -11742,7 +11934,7 @@
         <v>17185.154999999999</v>
       </c>
       <c r="F57">
-        <f>'EUROSTAT '!B9</f>
+        <f>EUROSTAT!B9</f>
         <v>17185.154999999999</v>
       </c>
     </row>
@@ -11751,7 +11943,7 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>4497.0675849999998</v>
@@ -11763,7 +11955,7 @@
         <v>7219.232</v>
       </c>
       <c r="F58">
-        <f>'EUROSTAT '!D15</f>
+        <f>EUROSTAT!D15</f>
         <v>7255</v>
       </c>
     </row>
@@ -11772,7 +11964,7 @@
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59">
         <v>3850.4900124999899</v>
@@ -11784,7 +11976,7 @@
         <v>4675</v>
       </c>
       <c r="F59">
-        <f>'EUROSTAT '!B15</f>
+        <f>EUROSTAT!B15</f>
         <v>4669</v>
       </c>
     </row>
@@ -11793,7 +11985,7 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C60">
         <v>14868.476007499999</v>
@@ -11805,7 +11997,7 @@
         <v>15733.484</v>
       </c>
       <c r="F60">
-        <f>'EUROSTAT '!J15</f>
+        <f>EUROSTAT!K15</f>
         <v>15733</v>
       </c>
     </row>
@@ -11814,7 +12006,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C61">
         <v>3.8672649999999997</v>
@@ -11826,7 +12018,7 @@
         <v>73.153999999999996</v>
       </c>
       <c r="F61">
-        <f>'EUROSTAT '!E15</f>
+        <f>EUROSTAT!E15</f>
         <v>90</v>
       </c>
     </row>
@@ -11835,7 +12027,7 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>12047.55133</v>
@@ -11847,7 +12039,7 @@
         <v>14870</v>
       </c>
       <c r="F62">
-        <f>'EUROSTAT '!D8</f>
+        <f>EUROSTAT!D8</f>
         <v>16013.964</v>
       </c>
     </row>
@@ -11856,7 +12048,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63">
         <v>1894.77485</v>
@@ -11868,7 +12060,7 @@
         <v>2090.7159999999999</v>
       </c>
       <c r="F63">
-        <f>'EUROSTAT '!B8</f>
+        <f>EUROSTAT!B8</f>
         <v>2151.674</v>
       </c>
     </row>
@@ -11877,7 +12069,7 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>813.40812500000004</v>
@@ -11889,7 +12081,7 @@
         <v>924</v>
       </c>
       <c r="F64">
-        <f>'EUROSTAT '!I8</f>
+        <f>EUROSTAT!J8</f>
         <v>931.65899999999999</v>
       </c>
     </row>
@@ -11898,7 +12090,7 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65">
         <v>4240.2483250000005</v>
@@ -11910,7 +12102,7 @@
         <v>2300</v>
       </c>
       <c r="F65">
-        <f>'EUROSTAT '!E8+'EUROSTAT '!G8</f>
+        <f>EUROSTAT!E8+EUROSTAT!G8</f>
         <v>2230.1379999999999</v>
       </c>
     </row>
@@ -11919,7 +12111,7 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66">
         <v>120.67122000000001</v>
@@ -11933,7 +12125,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67">
         <v>73504.645000000004</v>
@@ -11945,7 +12137,7 @@
         <v>128537.5</v>
       </c>
       <c r="F67">
-        <f>'EUROSTAT '!D12</f>
+        <f>EUROSTAT!D12</f>
         <v>128537.553</v>
       </c>
     </row>
@@ -11954,7 +12146,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>25848.683000000001</v>
@@ -11966,7 +12158,7 @@
         <v>28469.9</v>
       </c>
       <c r="F68">
-        <f>'EUROSTAT '!B12</f>
+        <f>EUROSTAT!B12</f>
         <v>28469.867999999999</v>
       </c>
     </row>
@@ -11975,7 +12167,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C69">
         <v>15843.858</v>
@@ -11987,7 +12179,7 @@
         <v>48786.400000000001</v>
       </c>
       <c r="F69">
-        <f>'EUROSTAT '!I12</f>
+        <f>EUROSTAT!J12</f>
         <v>50502.750999999997</v>
       </c>
     </row>
@@ -11996,7 +12188,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C70">
         <v>36286.053</v>
@@ -12008,7 +12200,7 @@
         <v>9394</v>
       </c>
       <c r="F70">
-        <f>'EUROSTAT '!E12</f>
+        <f>EUROSTAT!E12</f>
         <v>11029.13</v>
       </c>
     </row>
@@ -12017,7 +12209,7 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C71">
         <v>877.04499999999996</v>
@@ -12028,7 +12220,7 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72">
         <v>309.72800000000001</v>
@@ -12040,7 +12232,7 @@
         <v>17716.400000000001</v>
       </c>
       <c r="F72">
-        <f>'EUROSTAT '!L12</f>
+        <f>EUROSTAT!N12</f>
         <v>17716.434000000001</v>
       </c>
     </row>
@@ -12049,7 +12241,7 @@
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C73">
         <v>63.981999999999999</v>
@@ -12061,7 +12253,7 @@
         <v>330.3</v>
       </c>
       <c r="F73">
-        <f>'EUROSTAT '!D14</f>
+        <f>EUROSTAT!D14</f>
         <v>330.3</v>
       </c>
     </row>
@@ -12070,7 +12262,7 @@
         <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>524.505</v>
@@ -12082,7 +12274,7 @@
         <v>959.6</v>
       </c>
       <c r="F74">
-        <f>'EUROSTAT '!I14</f>
+        <f>EUROSTAT!J14</f>
         <v>959.6</v>
       </c>
     </row>
@@ -12091,7 +12283,7 @@
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75">
         <v>1898.2449999999999</v>
@@ -12103,7 +12295,7 @@
         <v>3218.6970000000001</v>
       </c>
       <c r="F75">
-        <f>'EUROSTAT '!D13</f>
+        <f>EUROSTAT!D13</f>
         <v>3218.6970000000001</v>
       </c>
     </row>
@@ -12112,7 +12304,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C76">
         <v>183.387</v>
@@ -12124,7 +12316,7 @@
         <v>2431.569</v>
       </c>
       <c r="F76">
-        <f>'EUROSTAT '!I13</f>
+        <f>EUROSTAT!J13</f>
         <v>2431.569</v>
       </c>
     </row>
@@ -12133,7 +12325,7 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C77">
         <v>992.13556999999992</v>
@@ -12145,7 +12337,7 @@
         <v>2092</v>
       </c>
       <c r="F77">
-        <f>'EUROSTAT '!I26</f>
+        <f>EUROSTAT!J26</f>
         <v>2113</v>
       </c>
     </row>
@@ -12154,7 +12346,7 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C78">
         <v>1440.7186399999998</v>
@@ -12166,7 +12358,7 @@
         <v>1577.7</v>
       </c>
       <c r="F78">
-        <f>'EUROSTAT '!B26</f>
+        <f>EUROSTAT!B26</f>
         <v>1554.7</v>
       </c>
     </row>
@@ -12175,7 +12367,7 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C79">
         <v>38298.322260000001</v>
@@ -12187,7 +12379,7 @@
         <v>56258</v>
       </c>
       <c r="F79">
-        <f>'EUROSTAT '!D16</f>
+        <f>EUROSTAT!D16</f>
         <v>57493.375999999997</v>
       </c>
     </row>
@@ -12196,7 +12388,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C80">
         <v>27130.254519999999</v>
@@ -12208,7 +12400,7 @@
         <v>29214</v>
       </c>
       <c r="F80">
-        <f>'EUROSTAT '!B16</f>
+        <f>EUROSTAT!B16</f>
         <v>27469.762999999999</v>
       </c>
     </row>
@@ -12217,7 +12409,7 @@
         <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C81">
         <v>3328.0357200000003</v>
@@ -12229,7 +12421,7 @@
         <v>3395</v>
       </c>
       <c r="F81">
-        <f>'EUROSTAT '!J16</f>
+        <f>EUROSTAT!K16</f>
         <v>3514.77</v>
       </c>
     </row>
@@ -12238,13 +12430,13 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82">
         <v>932.93875000000003</v>
       </c>
       <c r="F82">
-        <f>'EUROSTAT '!E16</f>
+        <f>EUROSTAT!E16</f>
         <v>1290.999</v>
       </c>
     </row>
@@ -12253,7 +12445,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C83">
         <v>1378.5019299999999</v>
@@ -12265,7 +12457,7 @@
         <v>6511</v>
       </c>
       <c r="F83">
-        <f>'EUROSTAT '!C18</f>
+        <f>EUROSTAT!C18</f>
         <v>5333.2209999999995</v>
       </c>
     </row>
@@ -12274,7 +12466,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C84">
         <v>7245.6467400000001</v>
@@ -12286,7 +12478,7 @@
         <v>12709</v>
       </c>
       <c r="F84">
-        <f>'EUROSTAT '!D18</f>
+        <f>EUROSTAT!D18</f>
         <v>12634.331</v>
       </c>
     </row>
@@ -12295,7 +12487,7 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C85">
         <v>64890.861349999999</v>
@@ -12312,7 +12504,7 @@
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C86">
         <v>557.71951000000001</v>
@@ -12324,7 +12516,7 @@
         <v>2387</v>
       </c>
       <c r="F86">
-        <f>'EUROSTAT '!I18</f>
+        <f>EUROSTAT!J18</f>
         <v>2387.4079999999999</v>
       </c>
     </row>
@@ -12333,7 +12525,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C87">
         <v>45574.123139999894</v>
@@ -12350,7 +12542,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C88">
         <v>10187.981800000001</v>
@@ -12362,7 +12554,7 @@
         <v>15615</v>
       </c>
       <c r="F88">
-        <f>'EUROSTAT '!D19</f>
+        <f>EUROSTAT!D19</f>
         <v>15611.618</v>
       </c>
     </row>
@@ -12371,7 +12563,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C89">
         <v>11165.453800000001</v>
@@ -12383,7 +12575,7 @@
         <v>12006</v>
       </c>
       <c r="F89">
-        <f>'EUROSTAT '!B19</f>
+        <f>EUROSTAT!B19</f>
         <v>12006.364</v>
       </c>
     </row>
@@ -12392,7 +12584,7 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90">
         <v>10449.469299999901</v>
@@ -12404,7 +12596,7 @@
         <v>13629</v>
       </c>
       <c r="F90">
-        <f>'EUROSTAT '!I19</f>
+        <f>EUROSTAT!J19</f>
         <v>13628.259</v>
       </c>
     </row>
@@ -12413,13 +12605,13 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C91">
         <v>615.05949999999996</v>
       </c>
       <c r="F91">
-        <f>'EUROSTAT '!C23</f>
+        <f>EUROSTAT!C23</f>
         <v>10195</v>
       </c>
     </row>
@@ -12428,13 +12620,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92">
         <v>408.28629999999998</v>
       </c>
       <c r="F92">
-        <f>'EUROSTAT '!D23</f>
+        <f>EUROSTAT!D23</f>
         <v>376</v>
       </c>
     </row>
@@ -12443,13 +12635,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>378.46090000000004</v>
       </c>
       <c r="F93">
-        <f>'EUROSTAT '!B23</f>
+        <f>EUROSTAT!B23</f>
         <v>335</v>
       </c>
     </row>
@@ -12458,7 +12650,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C94">
         <v>15933.702300000001</v>
@@ -12470,7 +12662,7 @@
         <v>62150</v>
       </c>
       <c r="F94">
-        <f>'EUROSTAT '!I23</f>
+        <f>EUROSTAT!J23</f>
         <v>62250</v>
       </c>
     </row>
@@ -12479,7 +12671,7 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C95">
         <v>65875.454400000002</v>
@@ -12491,7 +12683,7 @@
         <v>68549</v>
       </c>
       <c r="F95">
-        <f>'EUROSTAT '!J23</f>
+        <f>EUROSTAT!K23</f>
         <v>68549</v>
       </c>
     </row>
@@ -12500,13 +12692,13 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C96">
         <v>188.7183</v>
       </c>
       <c r="F96">
-        <f>'EUROSTAT '!E23</f>
+        <f>EUROSTAT!E23</f>
         <v>307</v>
       </c>
     </row>
@@ -12515,7 +12707,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C97">
         <v>5.9998500000000003</v>
@@ -12527,7 +12719,7 @@
         <v>478.01400000000001</v>
       </c>
       <c r="F97">
-        <f>'EUROSTAT '!D20</f>
+        <f>EUROSTAT!D20</f>
         <v>478.01400000000001</v>
       </c>
     </row>
@@ -12536,7 +12728,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C98">
         <v>163.6294</v>
@@ -12548,7 +12740,7 @@
         <v>5081.6660000000002</v>
       </c>
       <c r="F98">
-        <f>'EUROSTAT '!I20</f>
+        <f>EUROSTAT!J20</f>
         <v>4892.9930000000004</v>
       </c>
     </row>
@@ -12557,7 +12749,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C99">
         <v>3257.5970000000002</v>
@@ -12574,7 +12766,7 @@
         <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C100">
         <v>4999.6917899999999</v>
@@ -12586,7 +12778,7 @@
         <v>5776.4390000000003</v>
       </c>
       <c r="F100">
-        <f>'EUROSTAT '!J20</f>
+        <f>EUROSTAT!K20</f>
         <v>5776.4390000000003</v>
       </c>
     </row>
@@ -12595,7 +12787,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C101">
         <v>228.89991000000001</v>
@@ -12607,7 +12799,7 @@
         <v>1857</v>
       </c>
       <c r="F101">
-        <f>'EUROSTAT '!D21</f>
+        <f>EUROSTAT!D21</f>
         <v>1857</v>
       </c>
     </row>
@@ -12616,7 +12808,7 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>782.93614000000002</v>
@@ -12633,7 +12825,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C103">
         <v>427.01634000000001</v>
@@ -12645,7 +12837,7 @@
         <v>3879</v>
       </c>
       <c r="F103">
-        <f>'EUROSTAT '!I21</f>
+        <f>EUROSTAT!J21</f>
         <v>3879</v>
       </c>
     </row>
@@ -12654,7 +12846,7 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C104">
         <v>1167.7658300000001</v>
@@ -12671,7 +12863,7 @@
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C105">
         <v>14775.913689999999</v>
@@ -12683,8 +12875,2712 @@
         <v>14843</v>
       </c>
       <c r="F105">
-        <f>'EUROSTAT '!J21</f>
+        <f>EUROSTAT!K21</f>
         <v>14843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAFF96-6C49-4993-8B4C-B412CAE02581}">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="42"/>
+    <col min="2" max="2" width="16.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="45" customFormat="1" ht="27.6">
+      <c r="A1" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="50">
+        <v>9917.7350000000006</v>
+      </c>
+      <c r="D2" s="50">
+        <v>9917.7350000000006</v>
+      </c>
+      <c r="E2" s="51">
+        <f>ABS(C2-D2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="50">
+        <v>7457.2259999999997</v>
+      </c>
+      <c r="G2" s="52">
+        <f>ABS(C2-F2)/F2</f>
+        <v>0.32994963542743655</v>
+      </c>
+      <c r="H2" s="50">
+        <v>8166.8459999999995</v>
+      </c>
+      <c r="I2" s="52">
+        <f>ABS(C2-H2)/H2</f>
+        <v>0.21438986360217899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1805.2829999999999</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1805.2829999999999</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" ref="E3:E66" si="0">ABS(C3-D3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <v>1439.1479999999999</v>
+      </c>
+      <c r="G3" s="52">
+        <f t="shared" ref="G3:G66" si="1">ABS(C3-F3)/F3</f>
+        <v>0.25441094314135865</v>
+      </c>
+      <c r="H3" s="50">
+        <v>1422.42</v>
+      </c>
+      <c r="I3" s="52">
+        <f t="shared" ref="I3:I66" si="2">ABS(C3-H3)/H3</f>
+        <v>0.26916311637912838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="50">
+        <v>41219.15</v>
+      </c>
+      <c r="D4" s="50">
+        <v>37637.910000000003</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" si="0"/>
+        <v>9.5149810390640646E-2</v>
+      </c>
+      <c r="F4" s="50">
+        <v>16322.88</v>
+      </c>
+      <c r="G4" s="52">
+        <f t="shared" si="1"/>
+        <v>1.5252375806230276</v>
+      </c>
+      <c r="H4" s="50">
+        <v>32521.48</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" si="2"/>
+        <v>0.26744385556868883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="50">
+        <v>3484.3</v>
+      </c>
+      <c r="D5" s="50">
+        <v>3484</v>
+      </c>
+      <c r="E5" s="51">
+        <f t="shared" si="0"/>
+        <v>8.6107921928869666E-5</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1492.6859999999999</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="1"/>
+        <v>1.3342484621681991</v>
+      </c>
+      <c r="H5" s="50">
+        <v>2619.9430000000002</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" si="2"/>
+        <v>0.3299144294360602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="50">
+        <v>23984.5</v>
+      </c>
+      <c r="D6" s="50">
+        <v>23985</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" si="0"/>
+        <v>2.0846362309776944E-5</v>
+      </c>
+      <c r="F6" s="50">
+        <v>17181.87</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="1"/>
+        <v>0.39591907050862341</v>
+      </c>
+      <c r="H6" s="50">
+        <v>22303.26</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="2"/>
+        <v>7.5380908441187597E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1328.8</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1329</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5048908954104248E-4</v>
+      </c>
+      <c r="F7" s="50">
+        <v>1013.873</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="1"/>
+        <v>0.31061779927071725</v>
+      </c>
+      <c r="H7" s="50">
+        <v>1496.7919999999999</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="2"/>
+        <v>0.11223469927685341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="50">
+        <v>28597</v>
+      </c>
+      <c r="D8" s="50">
+        <v>28597</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="50">
+        <v>27243.84</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="1"/>
+        <v>4.966847551593314E-2</v>
+      </c>
+      <c r="H8" s="50">
+        <v>27251.67</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="2"/>
+        <v>4.9366882836905109E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="50">
+        <v>3658.7829999999999</v>
+      </c>
+      <c r="D9" s="50">
+        <v>3658.7829999999999</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="50">
+        <v>3295.4270000000001</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="1"/>
+        <v>0.11026067335128338</v>
+      </c>
+      <c r="H9" s="50">
+        <v>3321.049</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="2"/>
+        <v>0.10169497649688394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="50">
+        <v>18659.47</v>
+      </c>
+      <c r="D10" s="50">
+        <v>18659</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>2.5188916876636697E-5</v>
+      </c>
+      <c r="F10" s="50">
+        <v>16279.22</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="1"/>
+        <v>0.14621400779644245</v>
+      </c>
+      <c r="H10" s="50">
+        <v>20197.25</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="2"/>
+        <v>7.6138088106053978E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="50">
+        <v>16125.28</v>
+      </c>
+      <c r="D11" s="50">
+        <v>16125</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="0"/>
+        <v>1.7364341085311926E-5</v>
+      </c>
+      <c r="F11" s="50">
+        <v>14512.38</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" si="1"/>
+        <v>0.11113959254098925</v>
+      </c>
+      <c r="H11" s="50">
+        <v>16121.79</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="2"/>
+        <v>2.1647720259349498E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="50">
+        <v>3750.4650000000001</v>
+      </c>
+      <c r="D12" s="50">
+        <v>3750</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2400000000003879E-4</v>
+      </c>
+      <c r="F12" s="50">
+        <v>1729.0360000000001</v>
+      </c>
+      <c r="G12" s="52">
+        <f t="shared" si="1"/>
+        <v>1.1691075258120711</v>
+      </c>
+      <c r="H12" s="50">
+        <v>3357.0279999999998</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="2"/>
+        <v>0.11719800966807556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="50">
+        <v>2679.4180000000001</v>
+      </c>
+      <c r="D13" s="50">
+        <v>2679</v>
+      </c>
+      <c r="E13" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5602836879437105E-4</v>
+      </c>
+      <c r="F13" s="50">
+        <v>986.80029999999999</v>
+      </c>
+      <c r="G13" s="52">
+        <f t="shared" si="1"/>
+        <v>1.7152585989282738</v>
+      </c>
+      <c r="H13" s="50">
+        <v>3118.44</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="2"/>
+        <v>0.14078257077256576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="50">
+        <v>41201.480000000003</v>
+      </c>
+      <c r="D14" s="50">
+        <v>41225.1</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" si="0"/>
+        <v>5.7295191521658756E-4</v>
+      </c>
+      <c r="F14" s="50">
+        <v>23119.98</v>
+      </c>
+      <c r="G14" s="52">
+        <f t="shared" si="1"/>
+        <v>0.78207247584124229</v>
+      </c>
+      <c r="H14" s="50">
+        <v>37215.58</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="2"/>
+        <v>0.1071029928863127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="50">
+        <v>29921.31</v>
+      </c>
+      <c r="D15" s="50">
+        <v>29921</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0360616289606286E-5</v>
+      </c>
+      <c r="F15" s="50">
+        <v>28183.7</v>
+      </c>
+      <c r="G15" s="52">
+        <f t="shared" si="1"/>
+        <v>6.1653012202088457E-2</v>
+      </c>
+      <c r="H15" s="50">
+        <v>28228.53</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="2"/>
+        <v>5.9966990842243738E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="50">
+        <v>83425</v>
+      </c>
+      <c r="D16" s="50">
+        <v>82500</v>
+      </c>
+      <c r="E16" s="51">
+        <f t="shared" si="0"/>
+        <v>1.1212121212121211E-2</v>
+      </c>
+      <c r="F16" s="50">
+        <v>29024.32</v>
+      </c>
+      <c r="G16" s="52">
+        <f t="shared" si="1"/>
+        <v>1.8743136790112569</v>
+      </c>
+      <c r="H16" s="50">
+        <v>42958.22</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" si="2"/>
+        <v>0.94200318355835033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="50">
+        <v>23863</v>
+      </c>
+      <c r="D17" s="50">
+        <v>21179.94</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="0"/>
+        <v>0.12667930126336532</v>
+      </c>
+      <c r="F17" s="50">
+        <v>9687.7099999999991</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>1.4632240230147271</v>
+      </c>
+      <c r="H17" s="50">
+        <v>25004.67</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="2"/>
+        <v>4.5658271034970603E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="50">
+        <v>228156</v>
+      </c>
+      <c r="D18" s="50">
+        <v>228200</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="0"/>
+        <v>1.9281332164767747E-4</v>
+      </c>
+      <c r="F18" s="50">
+        <v>202504.8</v>
+      </c>
+      <c r="G18" s="52">
+        <f t="shared" si="1"/>
+        <v>0.12666959005416176</v>
+      </c>
+      <c r="H18" s="50">
+        <v>199907</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" si="2"/>
+        <v>0.14131070947990815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="50">
+        <v>76005</v>
+      </c>
+      <c r="D19" s="50">
+        <v>76000</v>
+      </c>
+      <c r="E19" s="51">
+        <f t="shared" si="0"/>
+        <v>6.5789473684210525E-5</v>
+      </c>
+      <c r="F19" s="50">
+        <v>71795.179999999993</v>
+      </c>
+      <c r="G19" s="52">
+        <f t="shared" si="1"/>
+        <v>5.8636526853195543E-2</v>
+      </c>
+      <c r="H19" s="50">
+        <v>71841.66</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="2"/>
+        <v>5.7951611919880422E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="50">
+        <v>4416.6369999999997</v>
+      </c>
+      <c r="D20" s="50">
+        <v>4416.5370000000003</v>
+      </c>
+      <c r="E20" s="51">
+        <f t="shared" si="0"/>
+        <v>2.2642174173895587E-5</v>
+      </c>
+      <c r="F20" s="50">
+        <v>3471.2939999999999</v>
+      </c>
+      <c r="G20" s="52">
+        <f t="shared" si="1"/>
+        <v>0.27233158585818429</v>
+      </c>
+      <c r="H20" s="50">
+        <v>3844.3980000000001</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" si="2"/>
+        <v>0.14885009304447655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="50">
+        <v>2071.9180000000001</v>
+      </c>
+      <c r="D21" s="50">
+        <v>2071.9180000000001</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>273.44310000000002</v>
+      </c>
+      <c r="G21" s="52">
+        <f t="shared" si="1"/>
+        <v>6.5771449343574586</v>
+      </c>
+      <c r="H21" s="50">
+        <v>2843.8960000000002</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" si="2"/>
+        <v>0.27145085474293013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="50">
+        <v>6567.3450000000003</v>
+      </c>
+      <c r="D22" s="50">
+        <v>6567.3450000000003</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>5562.2129999999997</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="shared" si="1"/>
+        <v>0.18070721132038642</v>
+      </c>
+      <c r="H22" s="50">
+        <v>6426.2120000000004</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" si="2"/>
+        <v>2.1962082794654114E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="50">
+        <v>4614.585</v>
+      </c>
+      <c r="D23" s="50">
+        <v>4614.585</v>
+      </c>
+      <c r="E23" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>4194.5309999999999</v>
+      </c>
+      <c r="G23" s="52">
+        <f t="shared" si="1"/>
+        <v>0.100143257970915</v>
+      </c>
+      <c r="H23" s="50">
+        <v>4436.5339999999997</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" si="2"/>
+        <v>4.0132905551946721E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="50">
+        <v>58004</v>
+      </c>
+      <c r="D24" s="50">
+        <v>65743.62</v>
+      </c>
+      <c r="E24" s="51">
+        <f t="shared" si="0"/>
+        <v>0.11772427499428835</v>
+      </c>
+      <c r="F24" s="50">
+        <v>26795.47</v>
+      </c>
+      <c r="G24" s="52">
+        <f t="shared" si="1"/>
+        <v>1.1646942561559845</v>
+      </c>
+      <c r="H24" s="50">
+        <v>50962</v>
+      </c>
+      <c r="I24" s="52">
+        <f t="shared" si="2"/>
+        <v>0.13818139005533533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="50">
+        <v>37341</v>
+      </c>
+      <c r="D25" s="50">
+        <v>37274</v>
+      </c>
+      <c r="E25" s="51">
+        <f t="shared" si="0"/>
+        <v>1.7974995975747171E-3</v>
+      </c>
+      <c r="F25" s="50">
+        <v>35004.17</v>
+      </c>
+      <c r="G25" s="52">
+        <f t="shared" si="1"/>
+        <v>6.6758617616129792E-2</v>
+      </c>
+      <c r="H25" s="50">
+        <v>32342.3</v>
+      </c>
+      <c r="I25" s="52">
+        <f t="shared" si="2"/>
+        <v>0.15455610763612981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="50">
+        <v>36803</v>
+      </c>
+      <c r="D26" s="50">
+        <v>34130</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="0"/>
+        <v>7.8318195136243773E-2</v>
+      </c>
+      <c r="F26" s="50">
+        <v>8507.3089999999993</v>
+      </c>
+      <c r="G26" s="52">
+        <f t="shared" si="1"/>
+        <v>3.3260448162867955</v>
+      </c>
+      <c r="H26" s="50">
+        <v>39497.040000000001</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" si="2"/>
+        <v>6.8208655635966661E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="50">
+        <v>55766</v>
+      </c>
+      <c r="D27" s="50">
+        <v>53197.62</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="0"/>
+        <v>4.8279979442689303E-2</v>
+      </c>
+      <c r="F27" s="50">
+        <v>53312.69</v>
+      </c>
+      <c r="G27" s="52">
+        <f t="shared" si="1"/>
+        <v>4.6017374099862479E-2</v>
+      </c>
+      <c r="H27" s="50">
+        <v>53273.31</v>
+      </c>
+      <c r="I27" s="52">
+        <f t="shared" si="2"/>
+        <v>4.6790597392953479E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="50">
+        <v>11821.36</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="51">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
+        <v>1627.9349999999999</v>
+      </c>
+      <c r="G28" s="52">
+        <f t="shared" si="1"/>
+        <v>6.2615675687297108</v>
+      </c>
+      <c r="H28" s="50">
+        <v>6405.4359999999997</v>
+      </c>
+      <c r="I28" s="52">
+        <f t="shared" si="2"/>
+        <v>0.8455199614827158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="50">
+        <v>4194</v>
+      </c>
+      <c r="D29" s="50">
+        <v>4194</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="50">
+        <v>2088.8049999999998</v>
+      </c>
+      <c r="G29" s="52">
+        <f t="shared" si="1"/>
+        <v>1.0078465917115289</v>
+      </c>
+      <c r="H29" s="50">
+        <v>4999.451</v>
+      </c>
+      <c r="I29" s="52">
+        <f t="shared" si="2"/>
+        <v>0.16110788964628317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="50">
+        <v>5791</v>
+      </c>
+      <c r="D30" s="50">
+        <v>5791</v>
+      </c>
+      <c r="E30" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>5099.777</v>
+      </c>
+      <c r="G30" s="52">
+        <f t="shared" si="1"/>
+        <v>0.13553984811492736</v>
+      </c>
+      <c r="H30" s="50">
+        <v>5971.0309999999999</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0150739461912015E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="50">
+        <v>22793</v>
+      </c>
+      <c r="D31" s="50">
+        <v>21881</v>
+      </c>
+      <c r="E31" s="51">
+        <f t="shared" si="0"/>
+        <v>4.1679996343859972E-2</v>
+      </c>
+      <c r="F31" s="50">
+        <v>21888</v>
+      </c>
+      <c r="G31" s="52">
+        <f t="shared" si="1"/>
+        <v>4.1346856725146201E-2</v>
+      </c>
+      <c r="H31" s="50">
+        <v>21884.43</v>
+      </c>
+      <c r="I31" s="52">
+        <f t="shared" si="2"/>
+        <v>4.1516731301660573E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="50">
+        <v>3806.136</v>
+      </c>
+      <c r="D32" s="50">
+        <v>3488.4589999999998</v>
+      </c>
+      <c r="E32" s="51">
+        <f t="shared" si="0"/>
+        <v>9.1065137930530407E-2</v>
+      </c>
+      <c r="F32" s="50">
+        <v>329.44729999999998</v>
+      </c>
+      <c r="G32" s="52">
+        <f t="shared" si="1"/>
+        <v>10.55309513843337</v>
+      </c>
+      <c r="H32" s="50">
+        <v>3488.4589999999998</v>
+      </c>
+      <c r="I32" s="52">
+        <f t="shared" si="2"/>
+        <v>9.1065137930530407E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="50">
+        <v>30611.54</v>
+      </c>
+      <c r="D33" s="50">
+        <v>30588</v>
+      </c>
+      <c r="E33" s="51">
+        <f t="shared" si="0"/>
+        <v>7.6958284294497423E-4</v>
+      </c>
+      <c r="F33" s="50">
+        <v>20270.419999999998</v>
+      </c>
+      <c r="G33" s="52">
+        <f t="shared" si="1"/>
+        <v>0.51015815163178679</v>
+      </c>
+      <c r="H33" s="50">
+        <v>29915.34</v>
+      </c>
+      <c r="I33" s="52">
+        <f t="shared" si="2"/>
+        <v>2.3272341213571388E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="50">
+        <v>8309.4959999999992</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="51">
+        <v>0</v>
+      </c>
+      <c r="F34" s="50">
+        <v>5651.1949999999997</v>
+      </c>
+      <c r="G34" s="52">
+        <f t="shared" si="1"/>
+        <v>0.47039626132172035</v>
+      </c>
+      <c r="H34" s="50">
+        <v>5799.7380000000003</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" si="2"/>
+        <v>0.43273644430144925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="50">
+        <v>70472.12</v>
+      </c>
+      <c r="D35" s="50">
+        <v>65923.990000000005</v>
+      </c>
+      <c r="E35" s="51">
+        <f t="shared" si="0"/>
+        <v>6.8990514682136045E-2</v>
+      </c>
+      <c r="F35" s="50">
+        <v>10004.73</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="1"/>
+        <v>6.0438802446442832</v>
+      </c>
+      <c r="H35" s="50">
+        <v>66973.14</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="2"/>
+        <v>5.224452668637003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="50">
+        <v>412941.8</v>
+      </c>
+      <c r="D36" s="50">
+        <v>412942</v>
+      </c>
+      <c r="E36" s="51">
+        <f t="shared" si="0"/>
+        <v>4.8432951845935147E-7</v>
+      </c>
+      <c r="F36" s="50">
+        <v>392536.9</v>
+      </c>
+      <c r="G36" s="52">
+        <f t="shared" si="1"/>
+        <v>5.1982119388011581E-2</v>
+      </c>
+      <c r="H36" s="50">
+        <v>391634.7</v>
+      </c>
+      <c r="I36" s="52">
+        <f t="shared" si="2"/>
+        <v>5.4405546801649537E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="50">
+        <v>23770.18</v>
+      </c>
+      <c r="D37" s="50">
+        <v>35600</v>
+      </c>
+      <c r="E37" s="51">
+        <f t="shared" si="0"/>
+        <v>0.33229831460674158</v>
+      </c>
+      <c r="F37" s="50">
+        <v>11844.06</v>
+      </c>
+      <c r="G37" s="52">
+        <f t="shared" si="1"/>
+        <v>1.0069283674685878</v>
+      </c>
+      <c r="H37" s="50">
+        <v>16018.41</v>
+      </c>
+      <c r="I37" s="52">
+        <f t="shared" si="2"/>
+        <v>0.48392880441941494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="50">
+        <v>131489.79999999999</v>
+      </c>
+      <c r="D38" s="50">
+        <v>127761</v>
+      </c>
+      <c r="E38" s="51">
+        <f t="shared" si="0"/>
+        <v>2.9185745258725186E-2</v>
+      </c>
+      <c r="F38" s="50">
+        <v>91207.96</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="1"/>
+        <v>0.4416482947321701</v>
+      </c>
+      <c r="H38" s="50">
+        <v>116680.7</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="2"/>
+        <v>0.12691987620917591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="50">
+        <v>16831.400000000001</v>
+      </c>
+      <c r="D39" s="50">
+        <v>16800</v>
+      </c>
+      <c r="E39" s="51">
+        <f t="shared" si="0"/>
+        <v>1.8690476190477057E-3</v>
+      </c>
+      <c r="F39" s="50">
+        <v>11004.85</v>
+      </c>
+      <c r="G39" s="52">
+        <f t="shared" si="1"/>
+        <v>0.52945292302939162</v>
+      </c>
+      <c r="H39" s="50">
+        <v>15937.02</v>
+      </c>
+      <c r="I39" s="52">
+        <f t="shared" si="2"/>
+        <v>5.6119650976154949E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="50">
+        <v>7942.2860000000001</v>
+      </c>
+      <c r="D40" s="50">
+        <v>6277</v>
+      </c>
+      <c r="E40" s="51">
+        <f t="shared" si="0"/>
+        <v>0.26529966544527639</v>
+      </c>
+      <c r="F40" s="50">
+        <v>3555.404</v>
+      </c>
+      <c r="G40" s="52">
+        <f t="shared" si="1"/>
+        <v>1.2338631559170208</v>
+      </c>
+      <c r="H40" s="50">
+        <v>3189.5590000000002</v>
+      </c>
+      <c r="I40" s="52">
+        <f t="shared" si="2"/>
+        <v>1.4900890687395967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="50">
+        <v>65063.85</v>
+      </c>
+      <c r="D41" s="50">
+        <v>59098</v>
+      </c>
+      <c r="E41" s="51">
+        <f t="shared" si="0"/>
+        <v>0.10094842465058036</v>
+      </c>
+      <c r="F41" s="50">
+        <v>45439.79</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="1"/>
+        <v>0.43186951348146629</v>
+      </c>
+      <c r="H41" s="50">
+        <v>60356.88</v>
+      </c>
+      <c r="I41" s="52">
+        <f t="shared" si="2"/>
+        <v>7.7985641404923534E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="50">
+        <v>56906.35</v>
+      </c>
+      <c r="D42" s="50">
+        <v>56878.62</v>
+      </c>
+      <c r="E42" s="51">
+        <f t="shared" si="0"/>
+        <v>4.8752940911709751E-4</v>
+      </c>
+      <c r="F42" s="50">
+        <v>22916.36</v>
+      </c>
+      <c r="G42" s="52">
+        <f t="shared" si="1"/>
+        <v>1.483219411808856</v>
+      </c>
+      <c r="H42" s="50">
+        <v>44248.19</v>
+      </c>
+      <c r="I42" s="52">
+        <f t="shared" si="2"/>
+        <v>0.28607181446291918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="50">
+        <v>14080.1</v>
+      </c>
+      <c r="D43" s="50">
+        <v>14080.1</v>
+      </c>
+      <c r="E43" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="50">
+        <v>15146.23</v>
+      </c>
+      <c r="G43" s="52">
+        <f t="shared" si="1"/>
+        <v>7.0389133137420942E-2</v>
+      </c>
+      <c r="H43" s="50">
+        <v>15235.05</v>
+      </c>
+      <c r="I43" s="52">
+        <f t="shared" si="2"/>
+        <v>7.5808743653614452E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="50">
+        <v>5759.9009999999998</v>
+      </c>
+      <c r="D44" s="50">
+        <v>5759</v>
+      </c>
+      <c r="E44" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5645077270356659E-4</v>
+      </c>
+      <c r="F44" s="50">
+        <v>5012.6970000000001</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" si="1"/>
+        <v>0.14906227126834112</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="50">
+        <v>17185.16</v>
+      </c>
+      <c r="D45" s="50">
+        <v>17185.16</v>
+      </c>
+      <c r="E45" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="50">
+        <v>15189</v>
+      </c>
+      <c r="G45" s="52">
+        <f t="shared" si="1"/>
+        <v>0.13142142339851207</v>
+      </c>
+      <c r="H45" s="50">
+        <v>15212.84</v>
+      </c>
+      <c r="I45" s="52">
+        <f t="shared" si="2"/>
+        <v>0.12964837597713508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="50">
+        <v>7255</v>
+      </c>
+      <c r="D46" s="50">
+        <v>7219.232</v>
+      </c>
+      <c r="E46" s="51">
+        <f t="shared" si="0"/>
+        <v>4.9545436412072683E-3</v>
+      </c>
+      <c r="F46" s="50">
+        <v>4497.0680000000002</v>
+      </c>
+      <c r="G46" s="52">
+        <f t="shared" si="1"/>
+        <v>0.61327335944219652</v>
+      </c>
+      <c r="H46" s="50">
+        <v>6242.1030000000001</v>
+      </c>
+      <c r="I46" s="52">
+        <f t="shared" si="2"/>
+        <v>0.16226854955773717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="50">
+        <v>4669</v>
+      </c>
+      <c r="D47" s="50">
+        <v>4675</v>
+      </c>
+      <c r="E47" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2834224598930481E-3</v>
+      </c>
+      <c r="F47" s="50">
+        <v>3850.49</v>
+      </c>
+      <c r="G47" s="52">
+        <f t="shared" si="1"/>
+        <v>0.21257294526151224</v>
+      </c>
+      <c r="H47" s="50">
+        <v>4775.402</v>
+      </c>
+      <c r="I47" s="52">
+        <f t="shared" si="2"/>
+        <v>2.2281265535341328E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="50">
+        <v>15733</v>
+      </c>
+      <c r="D48" s="50">
+        <v>15733.48</v>
+      </c>
+      <c r="E48" s="51">
+        <f t="shared" si="0"/>
+        <v>3.0508190177860425E-5</v>
+      </c>
+      <c r="F48" s="50">
+        <v>14868.48</v>
+      </c>
+      <c r="G48" s="52">
+        <f t="shared" si="1"/>
+        <v>5.8144477444903614E-2</v>
+      </c>
+      <c r="H48" s="50">
+        <v>14804.72</v>
+      </c>
+      <c r="I48" s="52">
+        <f t="shared" si="2"/>
+        <v>6.2701624887198187E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="50">
+        <v>16013.96</v>
+      </c>
+      <c r="D49" s="50">
+        <v>14870</v>
+      </c>
+      <c r="E49" s="51">
+        <f t="shared" si="0"/>
+        <v>7.693073301950229E-2</v>
+      </c>
+      <c r="F49" s="50">
+        <v>12047.55</v>
+      </c>
+      <c r="G49" s="52">
+        <f t="shared" si="1"/>
+        <v>0.32922959439886118</v>
+      </c>
+      <c r="H49" s="50">
+        <v>9433.2549999999992</v>
+      </c>
+      <c r="I49" s="52">
+        <f t="shared" si="2"/>
+        <v>0.69760702959900911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="50">
+        <v>2151.674</v>
+      </c>
+      <c r="D50" s="50">
+        <v>2090.7159999999999</v>
+      </c>
+      <c r="E50" s="51">
+        <f t="shared" si="0"/>
+        <v>2.9156518628068128E-2</v>
+      </c>
+      <c r="F50" s="50">
+        <v>1894.7750000000001</v>
+      </c>
+      <c r="G50" s="52">
+        <f t="shared" si="1"/>
+        <v>0.13558285284532456</v>
+      </c>
+      <c r="H50" s="50">
+        <v>2132.0839999999998</v>
+      </c>
+      <c r="I50" s="52">
+        <f t="shared" si="2"/>
+        <v>9.1881933357223014E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="50">
+        <v>931.65899999999999</v>
+      </c>
+      <c r="D51" s="50">
+        <v>924</v>
+      </c>
+      <c r="E51" s="51">
+        <f t="shared" si="0"/>
+        <v>8.2889610389610298E-3</v>
+      </c>
+      <c r="F51" s="50">
+        <v>813.40809999999999</v>
+      </c>
+      <c r="G51" s="52">
+        <f t="shared" si="1"/>
+        <v>0.14537708685222092</v>
+      </c>
+      <c r="H51" s="50">
+        <v>733.20950000000005</v>
+      </c>
+      <c r="I51" s="52">
+        <f t="shared" si="2"/>
+        <v>0.2706586589508182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="50">
+        <v>128537.60000000001</v>
+      </c>
+      <c r="D52" s="50">
+        <v>128537.5</v>
+      </c>
+      <c r="E52" s="51">
+        <f t="shared" si="0"/>
+        <v>7.7798307891331924E-7</v>
+      </c>
+      <c r="F52" s="50">
+        <v>73504.649999999994</v>
+      </c>
+      <c r="G52" s="52">
+        <f t="shared" si="1"/>
+        <v>0.7487002522969638</v>
+      </c>
+      <c r="H52" s="50">
+        <v>74485.100000000006</v>
+      </c>
+      <c r="I52" s="52">
+        <f t="shared" si="2"/>
+        <v>0.72568204916151013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="50">
+        <v>28469.87</v>
+      </c>
+      <c r="D53" s="50">
+        <v>28469.9</v>
+      </c>
+      <c r="E53" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0537444811001734E-6</v>
+      </c>
+      <c r="F53" s="50">
+        <v>25848.68</v>
+      </c>
+      <c r="G53" s="52">
+        <f t="shared" si="1"/>
+        <v>0.10140517813675587</v>
+      </c>
+      <c r="H53" s="50">
+        <v>25836.09</v>
+      </c>
+      <c r="I53" s="52">
+        <f t="shared" si="2"/>
+        <v>0.10194189600670994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="50">
+        <v>50502.75</v>
+      </c>
+      <c r="D54" s="50">
+        <v>48786.400000000001</v>
+      </c>
+      <c r="E54" s="51">
+        <f t="shared" si="0"/>
+        <v>3.5180911073577854E-2</v>
+      </c>
+      <c r="F54" s="50">
+        <v>15843.86</v>
+      </c>
+      <c r="G54" s="52">
+        <f t="shared" si="1"/>
+        <v>2.1875281654849261</v>
+      </c>
+      <c r="H54" s="50">
+        <v>46418.32</v>
+      </c>
+      <c r="I54" s="52">
+        <f t="shared" si="2"/>
+        <v>8.7991767043701721E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="50">
+        <v>17716.43</v>
+      </c>
+      <c r="D55" s="50">
+        <v>17716.400000000001</v>
+      </c>
+      <c r="E55" s="51">
+        <f t="shared" si="0"/>
+        <v>1.6933462779591704E-6</v>
+      </c>
+      <c r="F55" s="50">
+        <v>309.72800000000001</v>
+      </c>
+      <c r="G55" s="52">
+        <f t="shared" si="1"/>
+        <v>56.199962547783862</v>
+      </c>
+      <c r="H55" s="50">
+        <v>17311.900000000001</v>
+      </c>
+      <c r="I55" s="52">
+        <f t="shared" si="2"/>
+        <v>2.3367163627331419E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="50">
+        <v>330.3</v>
+      </c>
+      <c r="D56" s="50">
+        <v>330.3</v>
+      </c>
+      <c r="E56" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="50">
+        <v>63.981999999999999</v>
+      </c>
+      <c r="G56" s="52">
+        <f t="shared" si="1"/>
+        <v>4.162389422024944</v>
+      </c>
+      <c r="H56" s="50">
+        <v>261.197</v>
+      </c>
+      <c r="I56" s="52">
+        <f t="shared" si="2"/>
+        <v>0.26456276297200965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="50">
+        <v>959.6</v>
+      </c>
+      <c r="D57" s="50">
+        <v>959.6</v>
+      </c>
+      <c r="E57" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="50">
+        <v>524.505</v>
+      </c>
+      <c r="G57" s="52">
+        <f t="shared" si="1"/>
+        <v>0.82953451349367502</v>
+      </c>
+      <c r="H57" s="50">
+        <v>1151.615</v>
+      </c>
+      <c r="I57" s="52">
+        <f t="shared" si="2"/>
+        <v>0.16673541070583484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="50">
+        <v>3218.6970000000001</v>
+      </c>
+      <c r="D58" s="50">
+        <v>3218.6970000000001</v>
+      </c>
+      <c r="E58" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="50">
+        <v>1898.2449999999999</v>
+      </c>
+      <c r="G58" s="52">
+        <f t="shared" si="1"/>
+        <v>0.69561726752869113</v>
+      </c>
+      <c r="H58" s="50">
+        <v>2647.0160000000001</v>
+      </c>
+      <c r="I58" s="52">
+        <f t="shared" si="2"/>
+        <v>0.21597187172272478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="50">
+        <v>2431.569</v>
+      </c>
+      <c r="D59" s="50">
+        <v>2431.569</v>
+      </c>
+      <c r="E59" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="50">
+        <v>183.387</v>
+      </c>
+      <c r="G59" s="52">
+        <f t="shared" si="1"/>
+        <v>12.259222300381159</v>
+      </c>
+      <c r="H59" s="50">
+        <v>2363.6179999999999</v>
+      </c>
+      <c r="I59" s="52">
+        <f t="shared" si="2"/>
+        <v>2.8748723355466081E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="50">
+        <v>2113</v>
+      </c>
+      <c r="D60" s="50">
+        <v>2092</v>
+      </c>
+      <c r="E60" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0038240917782026E-2</v>
+      </c>
+      <c r="F60" s="50">
+        <v>992.13559999999995</v>
+      </c>
+      <c r="G60" s="52">
+        <f t="shared" si="1"/>
+        <v>1.1297491996053766</v>
+      </c>
+      <c r="H60" s="50">
+        <v>1290.7809999999999</v>
+      </c>
+      <c r="I60" s="52">
+        <f t="shared" si="2"/>
+        <v>0.63699341716371727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="50">
+        <v>1554.7</v>
+      </c>
+      <c r="D61" s="50">
+        <v>1577.7</v>
+      </c>
+      <c r="E61" s="51">
+        <f t="shared" si="0"/>
+        <v>1.4578183431577612E-2</v>
+      </c>
+      <c r="F61" s="50">
+        <v>1440.7190000000001</v>
+      </c>
+      <c r="G61" s="52">
+        <f t="shared" si="1"/>
+        <v>7.9113970177390594E-2</v>
+      </c>
+      <c r="H61" s="50">
+        <v>1443.8330000000001</v>
+      </c>
+      <c r="I61" s="52">
+        <f t="shared" si="2"/>
+        <v>7.6786581273596013E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="50">
+        <v>57493.38</v>
+      </c>
+      <c r="D62" s="50">
+        <v>56258</v>
+      </c>
+      <c r="E62" s="51">
+        <f t="shared" si="0"/>
+        <v>2.1959188026591726E-2</v>
+      </c>
+      <c r="F62" s="50">
+        <v>38298.32</v>
+      </c>
+      <c r="G62" s="52">
+        <f t="shared" si="1"/>
+        <v>0.50119848599103034</v>
+      </c>
+      <c r="H62" s="50">
+        <v>36995.14</v>
+      </c>
+      <c r="I62" s="52">
+        <f t="shared" si="2"/>
+        <v>0.55407926554677178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="50">
+        <v>27469.759999999998</v>
+      </c>
+      <c r="D63" s="50">
+        <v>29214</v>
+      </c>
+      <c r="E63" s="51">
+        <f t="shared" si="0"/>
+        <v>5.9705620592866486E-2</v>
+      </c>
+      <c r="F63" s="50">
+        <v>27130.25</v>
+      </c>
+      <c r="G63" s="52">
+        <f t="shared" si="1"/>
+        <v>1.2514075616700857E-2</v>
+      </c>
+      <c r="H63" s="50">
+        <v>27191.89</v>
+      </c>
+      <c r="I63" s="52">
+        <f t="shared" si="2"/>
+        <v>1.0218855695576843E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="50">
+        <v>3514.77</v>
+      </c>
+      <c r="D64" s="50">
+        <v>3395</v>
+      </c>
+      <c r="E64" s="51">
+        <f t="shared" si="0"/>
+        <v>3.5278350515463915E-2</v>
+      </c>
+      <c r="F64" s="50">
+        <v>3328.0360000000001</v>
+      </c>
+      <c r="G64" s="52">
+        <f t="shared" si="1"/>
+        <v>5.6109369009229443E-2</v>
+      </c>
+      <c r="H64" s="50">
+        <v>3328.7629999999999</v>
+      </c>
+      <c r="I64" s="52">
+        <f t="shared" si="2"/>
+        <v>5.5878715306556838E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="50">
+        <v>5333.2209999999995</v>
+      </c>
+      <c r="D65" s="50">
+        <v>6511</v>
+      </c>
+      <c r="E65" s="51">
+        <f t="shared" si="0"/>
+        <v>0.18089064659806489</v>
+      </c>
+      <c r="F65" s="50">
+        <v>1378.502</v>
+      </c>
+      <c r="G65" s="52">
+        <f t="shared" si="1"/>
+        <v>2.8688525660463311</v>
+      </c>
+      <c r="H65" s="50">
+        <v>1800.6769999999999</v>
+      </c>
+      <c r="I65" s="52">
+        <f t="shared" si="2"/>
+        <v>1.9617865947085458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="50">
+        <v>12634.33</v>
+      </c>
+      <c r="D66" s="50">
+        <v>12709</v>
+      </c>
+      <c r="E66" s="51">
+        <f t="shared" si="0"/>
+        <v>5.8753639153355944E-3</v>
+      </c>
+      <c r="F66" s="50">
+        <v>7245.6469999999999</v>
+      </c>
+      <c r="G66" s="52">
+        <f t="shared" si="1"/>
+        <v>0.74371315632682633</v>
+      </c>
+      <c r="H66" s="50">
+        <v>8683.3529999999992</v>
+      </c>
+      <c r="I66" s="52">
+        <f t="shared" si="2"/>
+        <v>0.45500591764494674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="50">
+        <v>2387.4079999999999</v>
+      </c>
+      <c r="D67" s="50">
+        <v>2387</v>
+      </c>
+      <c r="E67" s="51">
+        <f t="shared" ref="E67:E84" si="3">ABS(C67-D67)/D67</f>
+        <v>1.7092584834516204E-4</v>
+      </c>
+      <c r="F67" s="50">
+        <v>557.71950000000004</v>
+      </c>
+      <c r="G67" s="52">
+        <f t="shared" ref="G67:G84" si="4">ABS(C67-F67)/F67</f>
+        <v>3.2806607981252216</v>
+      </c>
+      <c r="H67" s="50">
+        <v>1573.1279999999999</v>
+      </c>
+      <c r="I67" s="52">
+        <f t="shared" ref="I67:I84" si="5">ABS(C67-H67)/H67</f>
+        <v>0.51761840104556023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="50">
+        <v>130563</v>
+      </c>
+      <c r="D68" s="50">
+        <v>130588</v>
+      </c>
+      <c r="E68" s="51">
+        <f t="shared" si="3"/>
+        <v>1.9144178638159709E-4</v>
+      </c>
+      <c r="F68" s="50">
+        <v>110465</v>
+      </c>
+      <c r="G68" s="52">
+        <f t="shared" si="4"/>
+        <v>0.18193998098945369</v>
+      </c>
+      <c r="H68" s="50">
+        <v>124369.4</v>
+      </c>
+      <c r="I68" s="52">
+        <f t="shared" si="5"/>
+        <v>4.9800031197384617E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="50">
+        <v>15611.62</v>
+      </c>
+      <c r="D69" s="50">
+        <v>15615</v>
+      </c>
+      <c r="E69" s="51">
+        <f t="shared" si="3"/>
+        <v>2.1645853346136405E-4</v>
+      </c>
+      <c r="F69" s="50">
+        <v>10187.98</v>
+      </c>
+      <c r="G69" s="52">
+        <f t="shared" si="4"/>
+        <v>0.53235675766933199</v>
+      </c>
+      <c r="H69" s="50">
+        <v>14530.63</v>
+      </c>
+      <c r="I69" s="52">
+        <f t="shared" si="5"/>
+        <v>7.4393883816462308E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="50">
+        <v>12006.36</v>
+      </c>
+      <c r="D70" s="50">
+        <v>12006</v>
+      </c>
+      <c r="E70" s="51">
+        <f t="shared" si="3"/>
+        <v>2.9985007496300355E-5</v>
+      </c>
+      <c r="F70" s="50">
+        <v>11165.45</v>
+      </c>
+      <c r="G70" s="52">
+        <f t="shared" si="4"/>
+        <v>7.531357894218324E-2</v>
+      </c>
+      <c r="H70" s="50">
+        <v>11164.71</v>
+      </c>
+      <c r="I70" s="52">
+        <f t="shared" si="5"/>
+        <v>7.5384851017178373E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="50">
+        <v>13628.26</v>
+      </c>
+      <c r="D71" s="50">
+        <v>13629</v>
+      </c>
+      <c r="E71" s="51">
+        <f t="shared" si="3"/>
+        <v>5.4295986499360317E-5</v>
+      </c>
+      <c r="F71" s="50">
+        <v>10449.469999999999</v>
+      </c>
+      <c r="G71" s="52">
+        <f t="shared" si="4"/>
+        <v>0.30420585924453597</v>
+      </c>
+      <c r="H71" s="50">
+        <v>11922.27</v>
+      </c>
+      <c r="I71" s="52">
+        <f t="shared" si="5"/>
+        <v>0.14309271640383917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="50">
+        <v>10195</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="50">
+        <v>615.05949999999996</v>
+      </c>
+      <c r="G72" s="52">
+        <f t="shared" si="4"/>
+        <v>15.57563211364104</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I72" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="50">
+        <v>376</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="50">
+        <v>408.28629999999998</v>
+      </c>
+      <c r="G73" s="52">
+        <f t="shared" si="4"/>
+        <v>7.9077598244173222E-2</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="50">
+        <v>335</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="50">
+        <v>378.46089999999998</v>
+      </c>
+      <c r="G74" s="52">
+        <f t="shared" si="4"/>
+        <v>0.11483590510935207</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="50">
+        <v>62250</v>
+      </c>
+      <c r="D75" s="50">
+        <v>62150</v>
+      </c>
+      <c r="E75" s="51">
+        <f t="shared" si="3"/>
+        <v>1.6090104585679806E-3</v>
+      </c>
+      <c r="F75" s="50">
+        <v>15933.7</v>
+      </c>
+      <c r="G75" s="52">
+        <f t="shared" si="4"/>
+        <v>2.9068138599320936</v>
+      </c>
+      <c r="H75" s="50">
+        <v>62112.76</v>
+      </c>
+      <c r="I75" s="52">
+        <f t="shared" si="5"/>
+        <v>2.2095298936965278E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="50">
+        <v>68549</v>
+      </c>
+      <c r="D76" s="50">
+        <v>68549</v>
+      </c>
+      <c r="E76" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="50">
+        <v>65875.45</v>
+      </c>
+      <c r="G76" s="52">
+        <f t="shared" si="4"/>
+        <v>4.0584922000532868E-2</v>
+      </c>
+      <c r="H76" s="50">
+        <v>65787.61</v>
+      </c>
+      <c r="I76" s="52">
+        <f t="shared" si="5"/>
+        <v>4.1974317048453343E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="50">
+        <v>478.01400000000001</v>
+      </c>
+      <c r="D77" s="50">
+        <v>478.01400000000001</v>
+      </c>
+      <c r="E77" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="50">
+        <v>5.9998500000000003</v>
+      </c>
+      <c r="G77" s="52">
+        <f t="shared" si="4"/>
+        <v>78.670991774794373</v>
+      </c>
+      <c r="H77" s="50">
+        <v>281.06299999999999</v>
+      </c>
+      <c r="I77" s="52">
+        <f t="shared" si="5"/>
+        <v>0.70073613389168987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="50">
+        <v>4892.9930000000004</v>
+      </c>
+      <c r="D78" s="50">
+        <v>5081.6660000000002</v>
+      </c>
+      <c r="E78" s="51">
+        <f t="shared" si="3"/>
+        <v>3.7128178042397861E-2</v>
+      </c>
+      <c r="F78" s="50">
+        <v>163.6294</v>
+      </c>
+      <c r="G78" s="52">
+        <f t="shared" si="4"/>
+        <v>28.902896423258905</v>
+      </c>
+      <c r="H78" s="50">
+        <v>4566.5389999999998</v>
+      </c>
+      <c r="I78" s="52">
+        <f t="shared" si="5"/>
+        <v>7.1488275913115087E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="50">
+        <v>4622.2700000000004</v>
+      </c>
+      <c r="D79" s="50">
+        <v>4622.2700000000004</v>
+      </c>
+      <c r="E79" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="50">
+        <v>3257.5970000000002</v>
+      </c>
+      <c r="G79" s="52">
+        <f t="shared" si="4"/>
+        <v>0.41892014266958133</v>
+      </c>
+      <c r="H79" s="50">
+        <v>4149.9960000000001</v>
+      </c>
+      <c r="I79" s="52">
+        <f t="shared" si="5"/>
+        <v>0.1138010735432035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="50">
+        <v>5776.4390000000003</v>
+      </c>
+      <c r="D80" s="50">
+        <v>5776.4390000000003</v>
+      </c>
+      <c r="E80" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="50">
+        <v>4999.692</v>
+      </c>
+      <c r="G80" s="52">
+        <f t="shared" si="4"/>
+        <v>0.155358970112559</v>
+      </c>
+      <c r="H80" s="50">
+        <v>5488.0889999999999</v>
+      </c>
+      <c r="I80" s="52">
+        <f t="shared" si="5"/>
+        <v>5.2541057552091514E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="50">
+        <v>1857</v>
+      </c>
+      <c r="D81" s="50">
+        <v>1857</v>
+      </c>
+      <c r="E81" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="50">
+        <v>228.8999</v>
+      </c>
+      <c r="G81" s="52">
+        <f t="shared" si="4"/>
+        <v>7.1127165193169599</v>
+      </c>
+      <c r="H81" s="50">
+        <v>1407.646</v>
+      </c>
+      <c r="I81" s="52">
+        <f t="shared" si="5"/>
+        <v>0.31922372528320336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="50">
+        <v>3879</v>
+      </c>
+      <c r="D82" s="50">
+        <v>3879</v>
+      </c>
+      <c r="E82" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="50">
+        <v>427.0163</v>
+      </c>
+      <c r="G82" s="52">
+        <f t="shared" si="4"/>
+        <v>8.0839623686496278</v>
+      </c>
+      <c r="H82" s="50">
+        <v>3606.0439999999999</v>
+      </c>
+      <c r="I82" s="52">
+        <f t="shared" si="5"/>
+        <v>7.5694029246454048E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="50">
+        <v>3011</v>
+      </c>
+      <c r="D83" s="50">
+        <v>3012.8</v>
+      </c>
+      <c r="E83" s="51">
+        <f t="shared" si="3"/>
+        <v>5.9745087626134551E-4</v>
+      </c>
+      <c r="F83" s="50">
+        <v>1950.702</v>
+      </c>
+      <c r="G83" s="52">
+        <f t="shared" si="4"/>
+        <v>0.5435468872231638</v>
+      </c>
+      <c r="H83" s="50">
+        <v>2140.54</v>
+      </c>
+      <c r="I83" s="52">
+        <f t="shared" si="5"/>
+        <v>0.40665439561979688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="50">
+        <v>14843</v>
+      </c>
+      <c r="D84" s="50">
+        <v>14843</v>
+      </c>
+      <c r="E84" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="50">
+        <v>14775.91</v>
+      </c>
+      <c r="G84" s="52">
+        <f t="shared" si="4"/>
+        <v>4.540498690097608E-3</v>
+      </c>
+      <c r="H84" s="50">
+        <v>14659.26</v>
+      </c>
+      <c r="I84" s="52">
+        <f t="shared" si="5"/>
+        <v>1.2534056971497865E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/External sources.xlsx
+++ b/Data Sources/External sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovin\My Drive\Master Thesis\Python Code\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A218B3-F6B6-48FA-92DC-27BF0E807046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B96FDDC-8A00-43BD-BA73-AC4B37F4DD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="National Statistics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="179">
   <si>
     <t>BE</t>
   </si>
@@ -581,7 +581,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.##########"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +685,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -747,12 +754,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -841,11 +849,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9FFBC14B-1060-485F-977D-E2CC81312EAF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{6DC1389B-C74D-4374-A44E-516F08BF9FCE}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{88428B12-042E-49A5-968F-479EBE8FF89B}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9300,10 +9309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF19EE-9FBC-4AA2-A7F7-967BADD9F147}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9317,16 +9326,17 @@
     <col min="8" max="8" width="8.88671875" style="32"/>
     <col min="9" max="9" width="9.109375" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="32"/>
+    <col min="12" max="12" width="11.21875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="34" t="s">
         <v>159</v>
       </c>
@@ -9361,25 +9371,28 @@
         <v>7</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -9413,26 +9426,29 @@
       <c r="K2" s="37">
         <v>28597</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="37">
+        <v>20.119999999999997</v>
+      </c>
+      <c r="M2" s="38">
         <v>967.6</v>
       </c>
-      <c r="M2" s="37">
+      <c r="N2" s="37">
         <v>3902.9</v>
       </c>
-      <c r="N2" s="37">
+      <c r="O2" s="37">
         <v>7464.7</v>
       </c>
-      <c r="O2" s="37">
+      <c r="P2" s="37">
         <v>21635.9</v>
       </c>
-      <c r="P2" s="37">
+      <c r="Q2" s="37">
         <v>4308.3999999999996</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="R2" s="33">
         <v>69212.346999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
@@ -9466,26 +9482,29 @@
       <c r="K3" s="37">
         <v>16125.281000000001</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="37">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="M3" s="39">
         <v>80.638000000000005</v>
       </c>
-      <c r="M3" s="37">
+      <c r="N3" s="37">
         <v>1342.7750000000001</v>
       </c>
-      <c r="N3" s="37">
+      <c r="O3" s="37">
         <v>1318.123</v>
       </c>
-      <c r="O3" s="37">
+      <c r="P3" s="37">
         <v>2222.7260000000001</v>
       </c>
-      <c r="P3" s="37">
+      <c r="Q3" s="37">
         <v>10030.049999999999</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="R3" s="33">
         <v>41705</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -9519,26 +9538,29 @@
       <c r="K4" s="37">
         <v>29921.311000000002</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="37">
+        <v>307.13800000000003</v>
+      </c>
+      <c r="M4" s="40">
         <v>100.18899999999999</v>
       </c>
-      <c r="M4" s="37">
+      <c r="N4" s="37">
         <v>2358.8809999999999</v>
       </c>
-      <c r="N4" s="37">
+      <c r="O4" s="37">
         <v>609.33000000000004</v>
       </c>
-      <c r="O4" s="37">
+      <c r="P4" s="37">
         <v>11573.41</v>
       </c>
-      <c r="P4" s="37">
+      <c r="Q4" s="37">
         <v>25480.503000000001</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="R4" s="33">
         <v>81967.627000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="34" t="s">
         <v>125</v>
       </c>
@@ -9572,26 +9594,29 @@
       <c r="K5" s="37">
         <v>0</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="37">
+        <v>564.69000000000005</v>
+      </c>
+      <c r="M5" s="39">
         <v>860.702</v>
       </c>
-      <c r="M5" s="37">
+      <c r="N5" s="37">
         <v>952.97299999999996</v>
       </c>
-      <c r="N5" s="37">
+      <c r="O5" s="37">
         <v>13901.955</v>
       </c>
-      <c r="O5" s="37">
+      <c r="P5" s="37">
         <v>15633.609</v>
       </c>
-      <c r="P5" s="37">
+      <c r="Q5" s="37">
         <v>10409.267</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="R5" s="33">
         <v>28939.089</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
@@ -9625,26 +9650,29 @@
       <c r="K6" s="37">
         <v>76005</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="37">
+        <v>6362.7689999999993</v>
+      </c>
+      <c r="M6" s="38">
         <v>6163</v>
       </c>
-      <c r="M6" s="37">
+      <c r="N6" s="37">
         <v>45784</v>
       </c>
-      <c r="N6" s="37">
+      <c r="O6" s="37">
         <v>109951</v>
       </c>
-      <c r="O6" s="37">
+      <c r="P6" s="37">
         <v>31727</v>
       </c>
-      <c r="P6" s="37">
+      <c r="Q6" s="37">
         <v>80463</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="R6" s="33">
         <v>571799.71300000011</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="34" t="s">
         <v>21</v>
       </c>
@@ -9678,26 +9706,29 @@
       <c r="K7" s="37">
         <v>0</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="41">
         <v>46</v>
       </c>
-      <c r="M7" s="37">
+      <c r="N7" s="37">
         <v>30.802</v>
       </c>
-      <c r="N7" s="37">
+      <c r="O7" s="37">
         <v>636</v>
       </c>
-      <c r="O7" s="37">
+      <c r="P7" s="37">
         <v>3053</v>
       </c>
-      <c r="P7" s="37">
+      <c r="Q7" s="37">
         <v>4950</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="R7" s="33">
         <v>10834.142999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="34" t="s">
         <v>53</v>
       </c>
@@ -9731,26 +9762,29 @@
       <c r="K8" s="37">
         <v>0</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="37">
+        <v>185.011</v>
+      </c>
+      <c r="M8" s="40">
         <v>330.15600000000001</v>
       </c>
-      <c r="M8" s="37">
+      <c r="N8" s="37">
         <v>16.655999999999999</v>
       </c>
-      <c r="N8" s="37">
+      <c r="O8" s="37">
         <v>8639.7669999999998</v>
       </c>
-      <c r="O8" s="37">
+      <c r="P8" s="37">
         <v>1621.519</v>
       </c>
-      <c r="P8" s="37">
+      <c r="Q8" s="37">
         <v>1649.249</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="R8" s="33">
         <v>29234.886000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="34" t="s">
         <v>49</v>
       </c>
@@ -9784,26 +9818,29 @@
       <c r="K9" s="37">
         <v>0</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="37">
         <v>0</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="41">
+        <v>0</v>
+      </c>
+      <c r="N9" s="37">
         <v>3790.652</v>
       </c>
-      <c r="N9" s="37">
+      <c r="O9" s="37">
         <v>6300.259</v>
       </c>
-      <c r="O9" s="37">
+      <c r="P9" s="37">
         <v>8550</v>
       </c>
-      <c r="P9" s="37">
+      <c r="Q9" s="37">
         <v>2272</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="R9" s="33">
         <v>50708.949000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="34" t="s">
         <v>31</v>
       </c>
@@ -9837,27 +9874,30 @@
       <c r="K10" s="37">
         <v>55766</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
+        <v>2985.297</v>
+      </c>
+      <c r="M10" s="38">
         <v>755</v>
       </c>
-      <c r="M10" s="37">
+      <c r="N10" s="37">
         <f>4867+7877</f>
         <v>12744</v>
       </c>
-      <c r="N10" s="37">
+      <c r="O10" s="37">
         <v>50896</v>
       </c>
-      <c r="O10" s="37">
+      <c r="P10" s="37">
         <v>24018</v>
       </c>
-      <c r="P10" s="37">
+      <c r="Q10" s="37">
         <v>12916</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="R10" s="33">
         <v>261071.19100000005</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
@@ -9891,26 +9931,29 @@
       <c r="K11" s="37">
         <v>412941.81199999998</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="37">
+        <v>731.82900000000006</v>
+      </c>
+      <c r="M11" s="39">
         <v>2202.1329999999998</v>
       </c>
-      <c r="M11" s="37">
+      <c r="N11" s="37">
         <v>10891.159</v>
       </c>
-      <c r="N11" s="37">
+      <c r="O11" s="37">
         <v>28598.595000000001</v>
       </c>
-      <c r="O11" s="37">
+      <c r="P11" s="37">
         <v>13512.09</v>
       </c>
-      <c r="P11" s="37">
+      <c r="Q11" s="37">
         <v>76478.785000000003</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="R11" s="33">
         <v>551685.82300000009</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="34" t="s">
         <v>58</v>
       </c>
@@ -9944,26 +9987,29 @@
       <c r="K12" s="37">
         <v>0</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="37">
+        <v>3114.373</v>
+      </c>
+      <c r="M12" s="40">
         <v>2370.9259999999999</v>
       </c>
-      <c r="M12" s="37">
+      <c r="N12" s="37">
         <v>22653.838</v>
       </c>
-      <c r="N12" s="37">
+      <c r="O12" s="37">
         <v>17716.434000000001</v>
       </c>
-      <c r="O12" s="37">
+      <c r="P12" s="37">
         <v>47170.203999999998</v>
       </c>
-      <c r="P12" s="37">
+      <c r="Q12" s="37">
         <v>3271.415</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="R12" s="33">
         <v>280234</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="34" t="s">
         <v>67</v>
       </c>
@@ -9997,26 +10043,29 @@
       <c r="K13" s="37">
         <v>0</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M13" s="41">
         <v>0</v>
       </c>
-      <c r="M13" s="37">
+      <c r="N13" s="37">
         <v>1.2729999999999999</v>
       </c>
-      <c r="N13" s="37">
+      <c r="O13" s="37">
         <v>122.038</v>
       </c>
-      <c r="O13" s="37">
+      <c r="P13" s="37">
         <v>5173.6819999999998</v>
       </c>
-      <c r="P13" s="37">
+      <c r="Q13" s="37">
         <v>4264.8010000000004</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="R13" s="33">
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="34" t="s">
         <v>63</v>
       </c>
@@ -10050,26 +10099,29 @@
       <c r="K14" s="37">
         <v>0</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="38">
         <v>48</v>
       </c>
-      <c r="M14" s="37">
+      <c r="N14" s="37">
         <v>86.6</v>
       </c>
-      <c r="N14" s="37">
+      <c r="O14" s="37">
         <v>1144</v>
       </c>
-      <c r="O14" s="37">
+      <c r="P14" s="37">
         <v>12847.5</v>
       </c>
-      <c r="P14" s="37">
+      <c r="Q14" s="37">
         <v>3215</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="R14" s="33">
         <v>3183.0950000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="34" t="s">
         <v>50</v>
       </c>
@@ -10103,26 +10155,29 @@
       <c r="K15" s="37">
         <v>15733</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="37">
+        <v>13.757999999999999</v>
+      </c>
+      <c r="M15" s="41">
         <v>162</v>
       </c>
-      <c r="M15" s="37">
+      <c r="N15" s="37">
         <v>629</v>
       </c>
-      <c r="N15" s="37">
+      <c r="O15" s="37">
         <v>607</v>
       </c>
-      <c r="O15" s="37">
+      <c r="P15" s="37">
         <v>18613</v>
       </c>
-      <c r="P15" s="37">
+      <c r="Q15" s="37">
         <v>4265</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="R15" s="33">
         <v>29749.879000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="34" t="s">
         <v>72</v>
       </c>
@@ -10156,26 +10211,29 @@
       <c r="K16" s="37">
         <v>3514.77</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="37">
+        <v>2361.9740000000002</v>
+      </c>
+      <c r="M16" s="40">
         <v>2172.2130000000002</v>
       </c>
-      <c r="M16" s="37">
+      <c r="N16" s="37">
         <v>3709.364</v>
       </c>
-      <c r="N16" s="37">
+      <c r="O16" s="37">
         <v>10548.511</v>
       </c>
-      <c r="O16" s="37">
+      <c r="P16" s="37">
         <v>26754.589</v>
       </c>
-      <c r="P16" s="37">
+      <c r="Q16" s="37">
         <v>18784.664000000001</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="R16" s="33">
         <v>112551.371</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="34" t="s">
         <v>104</v>
       </c>
@@ -10209,26 +10267,29 @@
       <c r="K17" s="37">
         <v>0</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="37">
+        <v>176.22</v>
+      </c>
+      <c r="M17" s="39">
         <v>335.80399999999997</v>
       </c>
-      <c r="M17" s="37">
+      <c r="N17" s="37">
         <v>1455.1320000000001</v>
       </c>
-      <c r="N17" s="37">
+      <c r="O17" s="37">
         <v>6030.4290000000001</v>
       </c>
-      <c r="O17" s="37">
+      <c r="P17" s="37">
         <v>28076.135999999999</v>
       </c>
-      <c r="P17" s="37">
+      <c r="Q17" s="37">
         <v>19129.330999999998</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="R17" s="33">
         <v>65587.791999999987</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="34" t="s">
         <v>79</v>
       </c>
@@ -10262,26 +10323,29 @@
       <c r="K18" s="37">
         <v>0</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="37">
+        <v>6988.3190000000004</v>
+      </c>
+      <c r="M18" s="40">
         <v>85.022999999999996</v>
       </c>
-      <c r="M18" s="37">
+      <c r="N18" s="37">
         <v>300.488</v>
       </c>
-      <c r="N18" s="37">
+      <c r="O18" s="37">
         <v>12798.791999999999</v>
       </c>
-      <c r="O18" s="37">
+      <c r="P18" s="37">
         <v>13815.804</v>
       </c>
-      <c r="P18" s="37">
+      <c r="Q18" s="37">
         <v>8121.3010000000004</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="R18" s="33">
         <v>154096.49999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="34" t="s">
         <v>83</v>
       </c>
@@ -10315,26 +10379,29 @@
       <c r="K19" s="37">
         <v>0</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="37">
+        <v>1032.3610000000001</v>
+      </c>
+      <c r="M19" s="39">
         <v>326.86799999999999</v>
       </c>
-      <c r="M19" s="37">
+      <c r="N19" s="37">
         <v>1005.897</v>
       </c>
-      <c r="N19" s="37">
+      <c r="O19" s="37">
         <v>12616.584000000001</v>
       </c>
-      <c r="O19" s="37">
+      <c r="P19" s="37">
         <v>5667.5680000000002</v>
       </c>
-      <c r="P19" s="37">
+      <c r="Q19" s="37">
         <v>8324.5360000000001</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="R19" s="33">
         <v>58085</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="34" t="s">
         <v>94</v>
       </c>
@@ -10368,26 +10435,29 @@
       <c r="K20" s="37">
         <v>5776.4390000000003</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M20" s="38">
         <v>0</v>
       </c>
-      <c r="M20" s="37">
+      <c r="N20" s="37">
         <v>254.96100000000001</v>
       </c>
-      <c r="N20" s="37">
+      <c r="O20" s="37">
         <v>6.0209999999999999</v>
       </c>
-      <c r="O20" s="37">
+      <c r="P20" s="37">
         <v>8930.2389999999996</v>
       </c>
-      <c r="P20" s="37">
+      <c r="Q20" s="37">
         <v>9432.402</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="R20" s="33">
         <v>15284.254000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
@@ -10421,26 +10491,29 @@
       <c r="K21" s="37">
         <v>14843</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="37">
+        <v>121.32400000000001</v>
+      </c>
+      <c r="M21" s="41">
         <v>16</v>
       </c>
-      <c r="M21" s="37">
+      <c r="N21" s="37">
         <v>585</v>
       </c>
-      <c r="N21" s="37">
+      <c r="O21" s="37">
         <v>6</v>
       </c>
-      <c r="O21" s="37">
+      <c r="P21" s="37">
         <v>12428</v>
       </c>
-      <c r="P21" s="37">
+      <c r="Q21" s="37">
         <v>8746</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="R21" s="33">
         <v>23717</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="34" t="s">
         <v>39</v>
       </c>
@@ -10474,26 +10547,29 @@
       <c r="K22" s="37">
         <v>22793</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="37">
+        <v>506.61999999999995</v>
+      </c>
+      <c r="M22" s="40">
         <v>662.26900000000001</v>
       </c>
-      <c r="M22" s="37">
+      <c r="N22" s="37">
         <v>90.224999999999994</v>
       </c>
-      <c r="N22" s="37">
+      <c r="O22" s="37">
         <v>5838.6679999999997</v>
       </c>
-      <c r="O22" s="37">
+      <c r="P22" s="37">
         <v>22548</v>
       </c>
-      <c r="P22" s="37">
+      <c r="Q22" s="37">
         <v>2612</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="R22" s="33">
         <v>67423.673999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="34" t="s">
         <v>91</v>
       </c>
@@ -10527,26 +10603,29 @@
       <c r="K23" s="37">
         <v>68549</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="37">
+        <v>45.314</v>
+      </c>
+      <c r="M23" s="41">
         <v>1656</v>
       </c>
-      <c r="M23" s="37">
+      <c r="N23" s="37">
         <v>407</v>
       </c>
-      <c r="N23" s="37">
+      <c r="O23" s="37">
         <v>16623</v>
       </c>
-      <c r="O23" s="37">
+      <c r="P23" s="37">
         <v>12202</v>
       </c>
-      <c r="P23" s="37">
+      <c r="Q23" s="37">
         <v>29425</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="R23" s="33">
         <v>158287.08799999996</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="34" t="s">
         <v>76</v>
       </c>
@@ -10580,26 +10659,29 @@
       <c r="K24" s="37">
         <v>0</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="37">
+        <v>3.794</v>
+      </c>
+      <c r="M24" s="39">
         <v>171.18899999999999</v>
       </c>
-      <c r="M24" s="37">
+      <c r="N24" s="37">
         <v>2.3170000000000002</v>
       </c>
-      <c r="N24" s="37">
+      <c r="O24" s="37">
         <v>3875.8809999999999</v>
       </c>
-      <c r="O24" s="37">
+      <c r="P24" s="37">
         <v>8339.7240000000002</v>
       </c>
-      <c r="P24" s="37">
+      <c r="Q24" s="37">
         <v>18488.901999999998</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="R24" s="33">
         <v>146845.18699999998</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="34" t="s">
         <v>100</v>
       </c>
@@ -10633,26 +10715,29 @@
       <c r="K25" s="37">
         <v>65063.849000000002</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="37">
+        <v>1447.24</v>
+      </c>
+      <c r="M25" s="40">
         <v>3479.585</v>
       </c>
-      <c r="M25" s="37">
+      <c r="N25" s="37">
         <v>12735.51</v>
       </c>
-      <c r="N25" s="37">
+      <c r="O25" s="37">
         <v>56906.35</v>
       </c>
-      <c r="O25" s="37">
+      <c r="P25" s="37">
         <v>21332.415000000001</v>
       </c>
-      <c r="P25" s="37">
+      <c r="Q25" s="37">
         <v>2224.7640000000001</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="R25" s="33">
         <v>317375.62899999996</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="34" t="s">
         <v>70</v>
       </c>
@@ -10686,26 +10771,29 @@
       <c r="K26" s="37">
         <v>0</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="37">
         <v>0</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="41">
         <v>0</v>
       </c>
       <c r="N26" s="37">
+        <v>0</v>
+      </c>
+      <c r="O26" s="37">
         <v>143</v>
       </c>
-      <c r="O26" s="37">
+      <c r="P26" s="37">
         <v>780</v>
       </c>
-      <c r="P26" s="37">
+      <c r="Q26" s="37">
         <v>976</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="R26" s="33">
         <v>3743</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="34" t="s">
         <v>87</v>
       </c>
@@ -10739,22 +10827,25 @@
       <c r="K27" s="37">
         <v>0</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="37">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M27" s="38">
         <v>0</v>
       </c>
-      <c r="M27" s="37">
+      <c r="N27" s="37">
         <v>13.04</v>
       </c>
-      <c r="N27" s="37">
+      <c r="O27" s="37">
         <v>150.41800000000001</v>
       </c>
-      <c r="O27" s="37">
+      <c r="P27" s="37">
         <v>6400.0069999999996</v>
       </c>
-      <c r="P27" s="37">
+      <c r="Q27" s="37">
         <v>6283.5129999999999</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="R27" s="33">
         <v>35241.186000000009</v>
       </c>
     </row>
@@ -12232,7 +12323,7 @@
         <v>17716.400000000001</v>
       </c>
       <c r="F72">
-        <f>EUROSTAT!N12</f>
+        <f>EUROSTAT!O12</f>
         <v>17716.434000000001</v>
       </c>
     </row>
@@ -12889,7 +12980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BAFF96-6C49-4993-8B4C-B412CAE02581}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Data Sources/External sources.xlsx
+++ b/Data Sources/External sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovin\My Drive\Master Thesis\Python Code\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B96FDDC-8A00-43BD-BA73-AC4B37F4DD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8E031-070A-4427-ADCC-240DE67070FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9312,7 +9312,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
